--- a/tests/test1/d30/ЛМ, 0.3.xlsx
+++ b/tests/test1/d30/ЛМ, 0.3.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003825700000000154</v>
+        <v>0.004347000000002765</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004752299999999821</v>
+        <v>0.004070099999999854</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002118499999994583</v>
+        <v>0.002050599999996905</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002623699999993789</v>
+        <v>0.004770100000001776</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002135000000002663</v>
+        <v>0.002085900000004415</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003973699999995972</v>
+        <v>0.003406600000005255</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00236080000000527</v>
+        <v>0.004208599999998341</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001942599999999572</v>
+        <v>0.002008299999999963</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002900199999999131</v>
+        <v>0.00264800000000065</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001889099999999644</v>
+        <v>0.001785699999999224</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002084299999999928</v>
+        <v>0.001958899999998209</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002065699999995729</v>
+        <v>0.002082500000000209</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002141500000000462</v>
+        <v>0.001973300000003064</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002094500000005439</v>
+        <v>0.002642800000003831</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002617099999994821</v>
+        <v>0.002441099999998642</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.00208040000000409</v>
+        <v>0.003694400000000542</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002481500000001802</v>
+        <v>0.001783799999998337</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002349399999999946</v>
+        <v>0.00219849999999866</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002588599999995722</v>
+        <v>0.002453500000001441</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001970900000003439</v>
+        <v>0.001739999999998076</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.003150599999997894</v>
+        <v>0.003883500000000595</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001916500000000099</v>
+        <v>0.001831299999999203</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001900900000002537</v>
+        <v>0.001987800000001982</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003574900000003822</v>
+        <v>0.002689799999998854</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002151699999998868</v>
+        <v>0.001959999999996853</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.00235219999999714</v>
+        <v>0.002322499999998229</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.0023988000000017</v>
+        <v>0.002234800000003645</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002604900000001464</v>
+        <v>0.002820599999999729</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002452699999999197</v>
+        <v>0.002221400000003371</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002118200000005288</v>
+        <v>0.002762799999999288</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002316600000000335</v>
+        <v>0.002008700000004637</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002623300000003326</v>
+        <v>0.002434299999997336</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002138700000003269</v>
+        <v>0.002102800000002958</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001927700000003085</v>
+        <v>0.001740900000001488</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002029200000002618</v>
+        <v>0.003399399999999275</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00309469999999834</v>
+        <v>0.001976700000000164</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002467800000005127</v>
+        <v>0.002217500000000427</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002523499999995238</v>
+        <v>0.002010699999999588</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002743299999998783</v>
+        <v>0.002443299999995929</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.00261099999999459</v>
+        <v>0.002481000000003064</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002192499999999598</v>
+        <v>0.002514400000002581</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.00220570000000464</v>
+        <v>0.002052200000001392</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003429099999998186</v>
+        <v>0.002487599999994927</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001885600000001375</v>
+        <v>0.003554199999996399</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.00222590000000622</v>
+        <v>0.001984100000001376</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001962900000002321</v>
+        <v>0.001838499999998078</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00237579999999582</v>
+        <v>0.002350299999996253</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003128500000002532</v>
+        <v>0.001843100000002096</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001881600000004369</v>
+        <v>0.001784999999998149</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002181000000000211</v>
+        <v>0.001989799999996933</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001948299999995129</v>
+        <v>0.001755699999996807</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002106599999997627</v>
+        <v>0.002018800000001875</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002275799999999606</v>
+        <v>0.002045000000002517</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.00284210000000229</v>
+        <v>0.002234700000002476</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002140499999995882</v>
+        <v>0.001982800000000395</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00198999999999927</v>
+        <v>0.003382799999997133</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001899700000002724</v>
+        <v>0.001761399999999469</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001936400000005278</v>
+        <v>0.001742700000001207</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002392800000002637</v>
+        <v>0.002234999999998877</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002316399999997998</v>
+        <v>0.001996999999995808</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.0027670999999998</v>
+        <v>0.002903499999995063</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002544499999999061</v>
+        <v>0.001980000000003201</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.003593700000003253</v>
+        <v>0.001749900000000082</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002719800000001271</v>
+        <v>0.002247000000004107</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002446200000001397</v>
+        <v>0.00222660000000019</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002884399999999232</v>
+        <v>0.002411299999998562</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003639700000000801</v>
+        <v>0.002004300000002956</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004862000000002809</v>
+        <v>0.004219299999995485</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002264300000000219</v>
+        <v>0.00196950000000129</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002492000000003713</v>
+        <v>0.002223200000003089</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002460100000000409</v>
+        <v>0.00222519999999804</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002240199999995696</v>
+        <v>0.002014299999999025</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001974499999995771</v>
+        <v>0.001801000000000386</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002673999999998955</v>
+        <v>0.002582400000001428</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002367800000001807</v>
+        <v>0.003890600000005406</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003076799999995217</v>
+        <v>0.001985500000003526</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002676499999999749</v>
+        <v>0.002476999999998952</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00313549999999907</v>
+        <v>0.00224510000000322</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002022300000000143</v>
+        <v>0.001752699999997276</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002460800000001484</v>
+        <v>0.002411800000004405</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002965300000006721</v>
+        <v>0.002485899999996377</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002273700000003487</v>
+        <v>0.003739600000002952</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003240800000000377</v>
+        <v>0.002222299999999677</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002370400000003769</v>
+        <v>0.002289300000001049</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.00198689999999857</v>
+        <v>0.00177810000000278</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002633500000001732</v>
+        <v>0.002439400000000091</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002254799999995782</v>
+        <v>0.002027899999994531</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002869699999997977</v>
+        <v>0.002663600000005317</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00315980000000593</v>
+        <v>0.004104099999999278</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.00194280000000191</v>
+        <v>0.001766799999998625</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002119000000000426</v>
+        <v>0.001972299999998484</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002244900000000882</v>
+        <v>0.00208860000000044</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002609499999998377</v>
+        <v>0.002436500000001729</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002725499999996828</v>
+        <v>0.002479700000002083</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002602700000004177</v>
+        <v>0.002587300000001846</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002868300000002932</v>
+        <v>0.002540600000003224</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002389100000002031</v>
+        <v>0.002210499999996784</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002843999999996072</v>
+        <v>0.004280500000000131</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002415299999995568</v>
+        <v>0.00231279999999856</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002370599999999001</v>
+        <v>0.002357899999999802</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.3.xlsx
+++ b/tests/test1/d30/ЛМ, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004347000000002765</v>
+        <v>0.002830200000005334</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004070099999999854</v>
+        <v>0.006197999999997705</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002050599999996905</v>
+        <v>0.002246299999995927</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004770100000001776</v>
+        <v>0.002820099999993886</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002085900000004415</v>
+        <v>0.002475700000005077</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003406600000005255</v>
+        <v>0.002518900000012536</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.004208599999998341</v>
+        <v>0.002234700000002476</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002008299999999963</v>
+        <v>0.001946699999990642</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00264800000000065</v>
+        <v>0.002926599999995005</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001785699999999224</v>
+        <v>0.001937400000002754</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001958899999998209</v>
+        <v>0.002141300000005231</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002082500000000209</v>
+        <v>0.002262799999996901</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.001973300000003064</v>
+        <v>0.002168500000010454</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002642800000003831</v>
+        <v>0.003111000000004083</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002441099999998642</v>
+        <v>0.002678799999998205</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.003694400000000542</v>
+        <v>0.004128999999991834</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001783799999998337</v>
+        <v>0.001922199999995655</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.00219849999999866</v>
+        <v>0.003257300000001351</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002453500000001441</v>
+        <v>0.002730999999997152</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001739999999998076</v>
+        <v>0.001951300000001766</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.003883500000000595</v>
+        <v>0.003052199999999061</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001831299999999203</v>
+        <v>0.001922999999990793</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001987800000001982</v>
+        <v>0.002001899999996226</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002689799999998854</v>
+        <v>0.002929199999996968</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.001959999999996853</v>
+        <v>0.004645100000004732</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002322499999998229</v>
+        <v>0.002522799999994163</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002234800000003645</v>
+        <v>0.002551900000000273</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002820599999999729</v>
+        <v>0.002865099999993959</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002221400000003371</v>
+        <v>0.00251790000000085</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002762799999999288</v>
+        <v>0.002230699999998365</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002008700000004637</v>
+        <v>0.0022653000000048</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002434299999997336</v>
+        <v>0.009108600000004685</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3206,7 +3206,7 @@
         <v>359.9535727583333</v>
       </c>
       <c r="F34" t="n">
-        <v>29.79802978067691</v>
+        <v>29.7980297806769</v>
       </c>
       <c r="G34" t="n">
         <v>153.6222127319037</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002102800000002958</v>
+        <v>0.002231300000005376</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001740900000001488</v>
+        <v>0.001945299999988492</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.003399399999999275</v>
+        <v>0.002037100000009673</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.001976700000000164</v>
+        <v>0.002217500000000427</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002217500000000427</v>
+        <v>0.002521999999999025</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002010699999999588</v>
+        <v>0.002353900000002795</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002443299999995929</v>
+        <v>0.002881599999994933</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002481000000003064</v>
+        <v>0.003138499999991495</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002514400000002581</v>
+        <v>0.002374799999998345</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002052200000001392</v>
+        <v>0.00381780000000731</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002487599999994927</v>
+        <v>0.002757599999995364</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003554199999996399</v>
+        <v>0.002048000000002048</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001984100000001376</v>
+        <v>0.002205399999994029</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001838499999998078</v>
+        <v>0.001907500000001505</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002350299999996253</v>
+        <v>0.002477900000002364</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001843100000002096</v>
+        <v>0.001928899999995792</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001784999999998149</v>
+        <v>0.003598900000000071</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001989799999996933</v>
+        <v>0.002261200000006625</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001755699999996807</v>
+        <v>0.001934099999999717</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002018800000001875</v>
+        <v>0.002239299999999389</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002045000000002517</v>
+        <v>0.00216389999999933</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002234700000002476</v>
+        <v>0.002490899999997964</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.001982800000000395</v>
+        <v>0.002326400000001172</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003382799999997133</v>
+        <v>0.002205099999997628</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001761399999999469</v>
+        <v>0.001975100000009888</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001742700000001207</v>
+        <v>0.003434200000000942</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002234999999998877</v>
+        <v>0.002544000000000324</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.001996999999995808</v>
+        <v>0.002171599999996943</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002903499999995063</v>
+        <v>0.002217199999989816</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.001980000000003201</v>
+        <v>0.002192300000004366</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001749900000000082</v>
+        <v>0.001986500000001001</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002247000000004107</v>
+        <v>0.002411599999987857</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.00222660000000019</v>
+        <v>0.004280199999996626</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002411299999998562</v>
+        <v>0.002136899999996444</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002004300000002956</v>
+        <v>0.003187199999999279</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004219299999995485</v>
+        <v>0.002967000000012376</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.00196950000000129</v>
+        <v>0.002263700000000313</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002223200000003089</v>
+        <v>0.002544299999996724</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.00222519999999804</v>
+        <v>0.002498199999990902</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002014299999999025</v>
+        <v>0.00220880000000534</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001801000000000386</v>
+        <v>0.001930200000003879</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002582400000001428</v>
+        <v>0.004352300000007858</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.003890600000005406</v>
+        <v>0.002677500000004329</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001985500000003526</v>
+        <v>0.003954399999997804</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002476999999998952</v>
+        <v>0.002727399999997715</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00224510000000322</v>
+        <v>0.002726499999994303</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001752699999997276</v>
+        <v>0.001984300000003714</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002411800000004405</v>
+        <v>0.002444699999998079</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002485899999996377</v>
+        <v>0.002909799999997631</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.003739600000002952</v>
+        <v>0.002204400000010764</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002222299999999677</v>
+        <v>0.002534900000000562</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002289300000001049</v>
+        <v>0.002520400000008749</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.00177810000000278</v>
+        <v>0.003448099999999954</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002439400000000091</v>
+        <v>0.002703299999993192</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002027899999994531</v>
+        <v>0.003994099999999889</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002663600000005317</v>
+        <v>0.002962099999990642</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004104099999999278</v>
+        <v>0.004320800000002123</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001766799999998625</v>
+        <v>0.001981299999997077</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.001972299999998484</v>
+        <v>0.002165199999993206</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.00208860000000044</v>
+        <v>0.002203199999996741</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002436500000001729</v>
+        <v>0.002665300000003867</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002479700000002083</v>
+        <v>0.002846599999998034</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002587300000001846</v>
+        <v>0.002671100000000592</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002540600000003224</v>
+        <v>0.003338299999995797</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002210499999996784</v>
+        <v>0.002454100000008452</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.004280500000000131</v>
+        <v>0.004579300000003172</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.00231279999999856</v>
+        <v>0.00246620000000064</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002357899999999802</v>
+        <v>0.003444500000000517</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.3.xlsx
+++ b/tests/test1/d30/ЛМ, 0.3.xlsx
@@ -582,13 +582,13 @@
         <v>359.9306192435076</v>
       </c>
       <c r="F2" t="n">
-        <v>30.34809603073917</v>
+        <v>30.34809603073919</v>
       </c>
       <c r="G2" t="n">
         <v>98.02640307528557</v>
       </c>
       <c r="H2" t="n">
-        <v>11.86685942203546</v>
+        <v>11.86685942203547</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>30.61625284933127</v>
       </c>
       <c r="P2" t="n">
-        <v>29.91334880808934</v>
+        <v>29.91334880808937</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02338924645890547</v>
+        <v>0.02338924645890844</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4595625588634227</v>
+        <v>0.4595625588635536</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2797269989458462</v>
+        <v>0.2797269989459289</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1316354450550241</v>
+        <v>0.1316354450550316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08987642010365787</v>
+        <v>0.08987642010365797</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1314697577835917</v>
+        <v>0.1314697577835952</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002830200000005334</v>
+        <v>0.002112299999996736</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -667,7 +667,7 @@
         <v>29.46531962982344</v>
       </c>
       <c r="G3" t="n">
-        <v>75.26286931322373</v>
+        <v>75.26286931322376</v>
       </c>
       <c r="H3" t="n">
         <v>11.31996849869247</v>
@@ -697,19 +697,19 @@
         <v>33.51343657214699</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02285630581398317</v>
+        <v>0.02285630581398371</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4370005644901899</v>
+        <v>0.4370005644902203</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2609986903780122</v>
+        <v>0.2609986903780324</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2077448803668263</v>
+        <v>0.2077448803668332</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08946362903642575</v>
+        <v>0.08946362903642581</v>
       </c>
       <c r="V3" t="n">
         <v>0.1267848735228775</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.006197999999997705</v>
+        <v>0.002722200000000896</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>30.3472479944947</v>
       </c>
       <c r="G4" t="n">
-        <v>87.47196222169198</v>
+        <v>87.47196222169177</v>
       </c>
       <c r="H4" t="n">
-        <v>3.210921484964482</v>
+        <v>3.210921484964485</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>10.23944158079038</v>
       </c>
       <c r="P4" t="n">
-        <v>28.35238772516914</v>
+        <v>28.35238772516916</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02104968693545143</v>
+        <v>0.0210496869354516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3405973522933231</v>
+        <v>0.3405973522933214</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1084060154095983</v>
+        <v>0.1084060154095974</v>
       </c>
       <c r="T4" t="n">
         <v>0.4166530799920987</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09494038268316822</v>
+        <v>0.09494038268316829</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3294377840334609</v>
+        <v>0.3294377840334525</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002246299999995927</v>
+        <v>0.001701100000001787</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -825,13 +825,13 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06957024895590778</v>
+        <v>0.06957024895589506</v>
       </c>
       <c r="F5" t="n">
         <v>29.43222022185973</v>
       </c>
       <c r="G5" t="n">
-        <v>100.375739733752</v>
+        <v>100.3757397337521</v>
       </c>
       <c r="H5" t="n">
         <v>11.10782842854759</v>
@@ -861,22 +861,22 @@
         <v>28.30362387758524</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02203851925828379</v>
+        <v>0.02203851925828445</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4232584703463898</v>
+        <v>0.423258470346447</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2548530077701037</v>
+        <v>0.2548530077701354</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1264264989349054</v>
+        <v>0.1264264989349043</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0939838683468133</v>
+        <v>0.09398386834681344</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1758628781781875</v>
+        <v>0.175862878178189</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002820099999993886</v>
+        <v>0.001968999999998999</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -910,13 +910,13 @@
         <v>0.002117305775931149</v>
       </c>
       <c r="F6" t="n">
-        <v>30.06069304311358</v>
+        <v>30.06069304311359</v>
       </c>
       <c r="G6" t="n">
         <v>174.4879119459752</v>
       </c>
       <c r="H6" t="n">
-        <v>9.829149596533526</v>
+        <v>9.829149596533529</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>15.87208610907545</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01732916135828002</v>
+        <v>0.01732916135828001</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2408649797864378</v>
+        <v>0.240864979786442</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05811296574935507</v>
+        <v>0.05811296574935453</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3425915354381653</v>
+        <v>0.3425915354381704</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08467471595910803</v>
+        <v>0.0846747159591081</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1193932733938658</v>
+        <v>0.1193932733938674</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002475700000005077</v>
+        <v>0.001875000000001847</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,10 +992,10 @@
         <v>359.9525086936916</v>
       </c>
       <c r="F7" t="n">
-        <v>30.39851146498882</v>
+        <v>30.39851146498883</v>
       </c>
       <c r="G7" t="n">
-        <v>39.74062358258227</v>
+        <v>39.74062358258229</v>
       </c>
       <c r="H7" t="n">
         <v>13.89802870694912</v>
@@ -1028,19 +1028,19 @@
         <v>0.02433517116882502</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4802326980518442</v>
+        <v>0.4802326980518421</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2374608733477743</v>
+        <v>0.2374608733477727</v>
       </c>
       <c r="T7" t="n">
         <v>0.4282560410446378</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08632893430718053</v>
+        <v>0.08632893430718064</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1330926026553808</v>
+        <v>0.1330926026553798</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002518900000012536</v>
+        <v>0.001960300000000359</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>0.01505812515294323</v>
       </c>
       <c r="F8" t="n">
-        <v>29.84031010549829</v>
+        <v>29.8403101054983</v>
       </c>
       <c r="G8" t="n">
-        <v>162.1553228885914</v>
+        <v>162.1553228885913</v>
       </c>
       <c r="H8" t="n">
-        <v>7.217894922668465</v>
+        <v>7.217894922668463</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>11.41632078197856</v>
       </c>
       <c r="P8" t="n">
-        <v>19.3622553237131</v>
+        <v>19.36225532371311</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01912106722606703</v>
+        <v>0.01912106722606673</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2553261749347871</v>
+        <v>0.2553261749347883</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08298117539678763</v>
+        <v>0.08298117539678797</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2955182980252641</v>
+        <v>0.2955182980252576</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08357595662416152</v>
+        <v>0.08357595662416148</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1664556547132214</v>
+        <v>0.1664556547132184</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002234700000002476</v>
+        <v>0.001747899999998026</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1156,13 +1156,13 @@
         <v>0.03421811012305186</v>
       </c>
       <c r="F9" t="n">
-        <v>29.24666963724473</v>
+        <v>29.24666963724472</v>
       </c>
       <c r="G9" t="n">
-        <v>13.59708380363069</v>
+        <v>13.59708380363067</v>
       </c>
       <c r="H9" t="n">
-        <v>11.69034682339495</v>
+        <v>11.69034682339496</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1189,22 +1189,22 @@
         <v>40.51465483878958</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02142978637777709</v>
+        <v>0.02142978637777728</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4736788715617607</v>
+        <v>0.4736788715617586</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1092706448498017</v>
+        <v>0.1092706448498034</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7454558521269847</v>
+        <v>0.7454558521269978</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08538385331308346</v>
+        <v>0.08538385331308337</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2119111231660116</v>
+        <v>0.2119111231660098</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001946699999990642</v>
+        <v>0.001473000000004276</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1268,25 +1268,25 @@
         <v>35.41022709665435</v>
       </c>
       <c r="P10" t="n">
-        <v>14.03630803386916</v>
+        <v>14.03630803386915</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02128170256213066</v>
+        <v>0.02128170256212973</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3760943908086299</v>
+        <v>0.3760943908085939</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1615255070987394</v>
+        <v>0.1615255070987242</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1331160913944635</v>
+        <v>0.1331160913944548</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09852554385737561</v>
+        <v>0.09852554385737555</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0728993274365789</v>
+        <v>0.07289932743657765</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002926599999995005</v>
+        <v>0.002441000000004578</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1320,13 +1320,13 @@
         <v>359.9885891606202</v>
       </c>
       <c r="F11" t="n">
-        <v>30.41786702456066</v>
+        <v>30.41786702456065</v>
       </c>
       <c r="G11" t="n">
-        <v>2.010891171400182</v>
+        <v>2.010891171400169</v>
       </c>
       <c r="H11" t="n">
-        <v>8.604196002326264</v>
+        <v>8.60419600232628</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>2.293444710415108</v>
       </c>
       <c r="P11" t="n">
-        <v>38.15074023434247</v>
+        <v>38.15074023434249</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01818155580365012</v>
+        <v>0.01818155580365021</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7684245255366851</v>
+        <v>0.7684245255366886</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05987291782103863</v>
+        <v>0.05987291782103891</v>
       </c>
       <c r="T11" t="n">
-        <v>1.212726203523261</v>
+        <v>1.212726203523276</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09423158955281635</v>
+        <v>0.09423158955281637</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1257330106100374</v>
+        <v>0.1257330106100317</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001937400000002754</v>
+        <v>0.001506999999996594</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,7 +1402,7 @@
         <v>359.9762995779107</v>
       </c>
       <c r="F12" t="n">
-        <v>30.04848223166915</v>
+        <v>30.04848223166917</v>
       </c>
       <c r="G12" t="n">
         <v>139.1200590057008</v>
@@ -1429,28 +1429,28 @@
         <v>24.73231265962071</v>
       </c>
       <c r="O12" t="n">
-        <v>8.714472408167799</v>
+        <v>8.714472408167811</v>
       </c>
       <c r="P12" t="n">
-        <v>24.72730700946465</v>
+        <v>24.72730700946466</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01965064798570411</v>
+        <v>0.01965064798570346</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3115068338550445</v>
+        <v>0.3115068338550483</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08521124802931179</v>
+        <v>0.0852112480293101</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4259287159877164</v>
+        <v>0.4259287159876993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08006359846536953</v>
+        <v>0.08006359846536962</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04957427653256459</v>
+        <v>0.04957427653257013</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002141300000005231</v>
+        <v>0.001693000000003053</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1484,13 +1484,13 @@
         <v>0.01555537701350465</v>
       </c>
       <c r="F13" t="n">
-        <v>29.26885840760777</v>
+        <v>29.26885840760778</v>
       </c>
       <c r="G13" t="n">
-        <v>31.47336991051479</v>
+        <v>31.47336991051488</v>
       </c>
       <c r="H13" t="n">
-        <v>3.099038105728972</v>
+        <v>3.099038105728964</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>5.972189567005703</v>
       </c>
       <c r="P13" t="n">
-        <v>29.98698879991932</v>
+        <v>29.98698879991931</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01924532257176124</v>
+        <v>0.01924532257176116</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3943522262067129</v>
+        <v>0.3943522262067051</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0781848885111302</v>
+        <v>0.07818488851113091</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6147888598946926</v>
+        <v>0.6147888598946889</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08666770673092015</v>
+        <v>0.0866677067309201</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1949678789600663</v>
+        <v>0.1949678789600708</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002262799999996901</v>
+        <v>0.001752699999997276</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1569,10 +1569,10 @@
         <v>30.61261718655215</v>
       </c>
       <c r="G14" t="n">
-        <v>27.50764075991406</v>
+        <v>27.50764075991408</v>
       </c>
       <c r="H14" t="n">
-        <v>12.43341543368196</v>
+        <v>12.43341543368195</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1599,22 +1599,22 @@
         <v>42.01310557047942</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02371694920032077</v>
+        <v>0.02371694920032073</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4639120995962056</v>
+        <v>0.4639120995962007</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1735101661369186</v>
+        <v>0.1735101661369162</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5518392926430884</v>
+        <v>0.5518392926430857</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0906270725824693</v>
+        <v>0.09062707258246931</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1829993102270089</v>
+        <v>0.1829993102270074</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002168500000010454</v>
+        <v>0.002095599999996978</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.477950820748</v>
       </c>
       <c r="H15" t="n">
-        <v>5.856744874228999</v>
+        <v>5.856744874229</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1681,22 +1681,22 @@
         <v>22.88620748391681</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02067534540377949</v>
+        <v>0.02067534540377967</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3009622766963985</v>
+        <v>0.3009622766964152</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1142209852371476</v>
+        <v>0.1142209852371554</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2612138746249551</v>
+        <v>0.2612138746249562</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07895133331953298</v>
+        <v>0.07895133331953302</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03538674866832517</v>
+        <v>0.03538674866832554</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.003111000000004083</v>
+        <v>0.00167030000000068</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1763,22 +1763,22 @@
         <v>31.0158468662577</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02274641008311854</v>
+        <v>0.02274641008311704</v>
       </c>
       <c r="R16" t="n">
-        <v>0.457035489512246</v>
+        <v>0.4570354895121737</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2884997624991169</v>
+        <v>0.2884997624990702</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1392201652536005</v>
+        <v>0.1392201652535943</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09348526834570281</v>
+        <v>0.09348526834570303</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02866991218203577</v>
+        <v>0.02866991218203632</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002678799999998205</v>
+        <v>0.002817600000000198</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1815,10 +1815,10 @@
         <v>29.92518383136968</v>
       </c>
       <c r="G17" t="n">
-        <v>153.2041779463469</v>
+        <v>153.2041779463468</v>
       </c>
       <c r="H17" t="n">
-        <v>5.163634523564556</v>
+        <v>5.16363452356455</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1839,28 +1839,28 @@
         <v>22.25264734341951</v>
       </c>
       <c r="O17" t="n">
-        <v>10.33707102917366</v>
+        <v>10.33707102917365</v>
       </c>
       <c r="P17" t="n">
-        <v>22.13713678897211</v>
+        <v>22.13713678897212</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01952406745749756</v>
+        <v>0.01952406745749791</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2809549632869029</v>
+        <v>0.280954963286906</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08664689858265394</v>
+        <v>0.08664689858265462</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3482919131783602</v>
+        <v>0.3482919131783682</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09014541807819371</v>
+        <v>0.09014541807819372</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02844082164653212</v>
+        <v>0.02844082164652689</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.004128999999991834</v>
+        <v>0.001674000000001286</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1894,13 +1894,13 @@
         <v>0.0126093769841341</v>
       </c>
       <c r="F18" t="n">
-        <v>29.22894735688455</v>
+        <v>29.22894735688454</v>
       </c>
       <c r="G18" t="n">
         <v>40.7361171284352</v>
       </c>
       <c r="H18" t="n">
-        <v>8.745349439964937</v>
+        <v>8.745349439964933</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>13.07152767137042</v>
       </c>
       <c r="P18" t="n">
-        <v>35.48388999111177</v>
+        <v>35.48388999111176</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02212550213580217</v>
+        <v>0.02212550213580106</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3879106692820757</v>
+        <v>0.3879106692820529</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1586381838840399</v>
+        <v>0.1586381838840208</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4072908324843983</v>
+        <v>0.4072908324843642</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07676295120068159</v>
+        <v>0.07676295120068168</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2274793805665339</v>
+        <v>0.2274793805665355</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001922199999995655</v>
+        <v>0.001467099999999277</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -1982,7 +1982,7 @@
         <v>51.54056423270865</v>
       </c>
       <c r="H19" t="n">
-        <v>9.682069533292646</v>
+        <v>9.682069533292648</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2009,22 +2009,22 @@
         <v>35.98122405575624</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02310902542339915</v>
+        <v>0.02310902542339849</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4187050537872812</v>
+        <v>0.4187050537872906</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1977137809806725</v>
+        <v>0.1977137809806701</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3442524603897759</v>
+        <v>0.344252460389763</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0927358456162605</v>
+        <v>0.09273584561626057</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1446970536267083</v>
+        <v>0.1446970536267088</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.003257300000001351</v>
+        <v>0.002436399999993455</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>115.0876671386274</v>
       </c>
       <c r="H20" t="n">
-        <v>9.316728321186964</v>
+        <v>9.316728321186966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2091,22 +2091,22 @@
         <v>25.74142606688023</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02277671285163491</v>
+        <v>0.02277671285163319</v>
       </c>
       <c r="R20" t="n">
-        <v>0.402210107565963</v>
+        <v>0.4022101075659155</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2057583041711441</v>
+        <v>0.2057583041711165</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1434166625172665</v>
+        <v>0.1434166625172617</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09189453414889581</v>
+        <v>0.09189453414889562</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1910423046453466</v>
+        <v>0.1910423046453473</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002730999999997152</v>
+        <v>0.002730700000000752</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>0.005255660018112794</v>
       </c>
       <c r="F21" t="n">
-        <v>29.77176103626942</v>
+        <v>29.77176103626944</v>
       </c>
       <c r="G21" t="n">
-        <v>17.21070733280324</v>
+        <v>17.21070733280325</v>
       </c>
       <c r="H21" t="n">
-        <v>12.40705808238184</v>
+        <v>12.40705808238182</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>7.678329780101454</v>
       </c>
       <c r="P21" t="n">
-        <v>41.75156102901107</v>
+        <v>41.75156102901106</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02237724625023662</v>
+        <v>0.02237724625023688</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4647634273042682</v>
+        <v>0.4647634273042726</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1294867510119585</v>
+        <v>0.1294867510119618</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6855563653791883</v>
+        <v>0.6855563653792011</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08683549463606495</v>
+        <v>0.08683549463606487</v>
       </c>
       <c r="V21" t="n">
-        <v>0.06938183895578498</v>
+        <v>0.06938183895578003</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001951300000001766</v>
+        <v>0.001577400000002172</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2219,16 +2219,16 @@
         <v>13.77256473491301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0383205563791716</v>
+        <v>0.03832055637918432</v>
       </c>
       <c r="F22" t="n">
-        <v>29.40795449666561</v>
+        <v>29.4079544966656</v>
       </c>
       <c r="G22" t="n">
-        <v>106.3947764244101</v>
+        <v>106.3947764244102</v>
       </c>
       <c r="H22" t="n">
-        <v>13.38004961279441</v>
+        <v>13.3800496127944</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>36.7024329443359</v>
       </c>
       <c r="P22" t="n">
-        <v>27.76388034897748</v>
+        <v>27.76388034897747</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02217971833645323</v>
+        <v>0.02217971833645445</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4543817555214748</v>
+        <v>0.4543817555215618</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2992899527909442</v>
+        <v>0.299289952790999</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09591557713097171</v>
+        <v>0.09591557713097161</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08479427933854358</v>
+        <v>0.08479427933854353</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1386741984534833</v>
+        <v>0.1386741984534874</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.003052199999999061</v>
+        <v>0.002720600000003515</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2310,7 +2310,7 @@
         <v>9.099823743998462</v>
       </c>
       <c r="H23" t="n">
-        <v>7.239765560928348</v>
+        <v>7.239765560928343</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>3.945588277157447</v>
       </c>
       <c r="P23" t="n">
-        <v>36.65951714830919</v>
+        <v>36.65951714830918</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01976916669419218</v>
+        <v>0.01976916669419205</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5701283874882362</v>
+        <v>0.5701283874882318</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07624809543063518</v>
+        <v>0.07624809543063482</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9228645811996296</v>
+        <v>0.9228645811996171</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09116573659635349</v>
+        <v>0.09116573659635356</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4042103235279116</v>
+        <v>0.4042103235279096</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001922999999990793</v>
+        <v>0.001502699999996082</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>0.004901942292633112</v>
       </c>
       <c r="F24" t="n">
-        <v>30.55849272909211</v>
+        <v>30.55849272909212</v>
       </c>
       <c r="G24" t="n">
         <v>39.48072363792816</v>
       </c>
       <c r="H24" t="n">
-        <v>8.45516118201858</v>
+        <v>8.455161182018584</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2413,28 +2413,28 @@
         <v>36.5366037130493</v>
       </c>
       <c r="O24" t="n">
-        <v>12.03117447991382</v>
+        <v>12.03117447991383</v>
       </c>
       <c r="P24" t="n">
-        <v>36.57678681229417</v>
+        <v>36.57678681229418</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02299213950241763</v>
+        <v>0.02299213950241811</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4173335559838936</v>
+        <v>0.4173335559838856</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1584151914065801</v>
+        <v>0.158415191406581</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4529912485571614</v>
+        <v>0.4529912485571732</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09928434368700753</v>
+        <v>0.09928434368700756</v>
       </c>
       <c r="V24" t="n">
-        <v>0.154542960738865</v>
+        <v>0.1545429607388643</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002001899999996226</v>
+        <v>0.00148539999999997</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2501,22 +2501,22 @@
         <v>32.0610342390378</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02323999262136095</v>
+        <v>0.02323999262136167</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4889459675263283</v>
+        <v>0.4889459675263233</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3395365173652891</v>
+        <v>0.33953651736529</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1170979842474839</v>
+        <v>0.1170979842474867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08245784300934256</v>
+        <v>0.08245784300934264</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0279376004407384</v>
+        <v>0.02793760044073778</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002929199999996968</v>
+        <v>0.002514699999998982</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2583,19 +2583,19 @@
         <v>14.42213959842661</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01792656649005008</v>
+        <v>0.01792656649005072</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2109158353665475</v>
+        <v>0.2109158353665501</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06815335735088275</v>
+        <v>0.06815335735088625</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2458708399267783</v>
+        <v>0.2458708399267858</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08751807674422121</v>
+        <v>0.08751807674422123</v>
       </c>
       <c r="V26" t="n">
         <v>0.1486494791535689</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.004645100000004732</v>
+        <v>0.00174390000000102</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,7 +2632,7 @@
         <v>0.007497460879561455</v>
       </c>
       <c r="F27" t="n">
-        <v>30.40070222078409</v>
+        <v>30.4007022207841</v>
       </c>
       <c r="G27" t="n">
         <v>156.4522002790432</v>
@@ -2662,25 +2662,25 @@
         <v>19.93359573182206</v>
       </c>
       <c r="P27" t="n">
-        <v>17.69587294454295</v>
+        <v>17.69587294454297</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02056230532621345</v>
+        <v>0.02056230532621222</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2954492360898258</v>
+        <v>0.2954492360898384</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1187787671575387</v>
+        <v>0.1187787671575336</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1553151581720186</v>
+        <v>0.1553151581720149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09616889927714765</v>
+        <v>0.09616889927714775</v>
       </c>
       <c r="V27" t="n">
-        <v>0.07925468313808928</v>
+        <v>0.07925468313809064</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002522799999994163</v>
+        <v>0.001842599999996253</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2714,13 +2714,13 @@
         <v>0.0205882222013952</v>
       </c>
       <c r="F28" t="n">
-        <v>30.06494429679221</v>
+        <v>30.06494429679222</v>
       </c>
       <c r="G28" t="n">
         <v>56.4644967946786</v>
       </c>
       <c r="H28" t="n">
-        <v>9.063538196825826</v>
+        <v>9.06353819682583</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2741,28 +2741,28 @@
         <v>35.20863709983118</v>
       </c>
       <c r="O28" t="n">
-        <v>17.02848392766897</v>
+        <v>17.02848392766895</v>
       </c>
       <c r="P28" t="n">
-        <v>34.99124192776708</v>
+        <v>34.9912419277671</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02297885093392237</v>
+        <v>0.0229788509339209</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4165434872684994</v>
+        <v>0.4165434872684606</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1968875864717333</v>
+        <v>0.1968875864717047</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3264745586617829</v>
+        <v>0.3264745586617477</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08641393509075507</v>
+        <v>0.08641393509075523</v>
       </c>
       <c r="V28" t="n">
-        <v>0.08943048225575667</v>
+        <v>0.08943048225575503</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002551900000000273</v>
+        <v>0.002184499999998479</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>359.9354628040981</v>
       </c>
       <c r="F29" t="n">
-        <v>30.10434610304439</v>
+        <v>30.10434610304437</v>
       </c>
       <c r="G29" t="n">
         <v>76.06307540207089</v>
       </c>
       <c r="H29" t="n">
-        <v>12.99270530994779</v>
+        <v>12.99270530994778</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2823,28 +2823,28 @@
         <v>34.86118304053818</v>
       </c>
       <c r="O29" t="n">
-        <v>27.50669743539379</v>
+        <v>27.50669743539378</v>
       </c>
       <c r="P29" t="n">
-        <v>35.22513175077046</v>
+        <v>35.22513175077044</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02383873416014779</v>
+        <v>0.0238387341601463</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4784916131401173</v>
+        <v>0.4784916131400551</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3041410822709045</v>
+        <v>0.3041410822708591</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1999939984622384</v>
+        <v>0.1999939984622201</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09316277034618139</v>
+        <v>0.09316277034618146</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08146938412437428</v>
+        <v>0.08146938412436441</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002865099999993959</v>
+        <v>0.002156099999993444</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2884,7 +2884,7 @@
         <v>130.9198045025009</v>
       </c>
       <c r="H30" t="n">
-        <v>9.722966015908368</v>
+        <v>9.722966015908366</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>26.83974872317151</v>
       </c>
       <c r="P30" t="n">
-        <v>22.11180657156714</v>
+        <v>22.11180657156713</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02161210633390138</v>
+        <v>0.02161210633390147</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3674974838287525</v>
+        <v>0.3674974838287534</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1803089200807518</v>
+        <v>0.1803089200807547</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1224565289754418</v>
+        <v>0.122456528975439</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0862550578523405</v>
+        <v>0.08625505785234042</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01680698442532769</v>
+        <v>0.01680698442532762</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.00251790000000085</v>
+        <v>0.00183320000000009</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2963,10 +2963,10 @@
         <v>30.18555298630361</v>
       </c>
       <c r="G31" t="n">
-        <v>153.3058919408812</v>
+        <v>153.3058919408813</v>
       </c>
       <c r="H31" t="n">
-        <v>6.192446156803586</v>
+        <v>6.192446156803593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2987,28 +2987,28 @@
         <v>20.83865222468982</v>
       </c>
       <c r="O31" t="n">
-        <v>12.11829772113932</v>
+        <v>12.11829772113931</v>
       </c>
       <c r="P31" t="n">
-        <v>21.40729351457196</v>
+        <v>21.40729351457195</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01996738726741382</v>
+        <v>0.01996738726741348</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2789433231789593</v>
+        <v>0.2789433231789625</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09489475262175806</v>
+        <v>0.09489475262175623</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2977697118476862</v>
+        <v>0.2977697118476813</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09051313770888574</v>
+        <v>0.09051313770888578</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1929646361453619</v>
+        <v>0.1929646361453571</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002230699999998365</v>
+        <v>0.001694399999998097</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3048,7 +3048,7 @@
         <v>116.4758822735844</v>
       </c>
       <c r="H32" t="n">
-        <v>7.417931311106303</v>
+        <v>7.417931311106305</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3069,28 +3069,28 @@
         <v>25.20335661415189</v>
       </c>
       <c r="O32" t="n">
-        <v>21.70381852676972</v>
+        <v>21.70381852676971</v>
       </c>
       <c r="P32" t="n">
-        <v>24.75117354236458</v>
+        <v>24.75117354236459</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02137039886468985</v>
+        <v>0.02137039886469124</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3492668101111404</v>
+        <v>0.3492668101112151</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1656450154125893</v>
+        <v>0.1656450154126259</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1759753468303588</v>
+        <v>0.1759753468303623</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08943818193173829</v>
+        <v>0.08943818193173825</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1036540854274781</v>
+        <v>0.1036540854274842</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.0022653000000048</v>
+        <v>0.002008599999996363</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3124,13 +3124,13 @@
         <v>0.05187740220608925</v>
       </c>
       <c r="F33" t="n">
-        <v>29.65729328953952</v>
+        <v>29.65729328953953</v>
       </c>
       <c r="G33" t="n">
-        <v>51.16172535842582</v>
+        <v>51.16172535842579</v>
       </c>
       <c r="H33" t="n">
-        <v>14.31866538021226</v>
+        <v>14.31866538021228</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,25 +3154,25 @@
         <v>21.08531525407248</v>
       </c>
       <c r="P33" t="n">
-        <v>40.53007813981582</v>
+        <v>40.53007813981585</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02367029903048827</v>
+        <v>0.0236702990304885</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4748853273809864</v>
+        <v>0.4748853273810179</v>
       </c>
       <c r="S33" t="n">
-        <v>0.2793682458350518</v>
+        <v>0.2793682458350707</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3334386355575698</v>
+        <v>0.3334386355575815</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09228893375725286</v>
+        <v>0.09228893375725283</v>
       </c>
       <c r="V33" t="n">
-        <v>0.07287771590753399</v>
+        <v>0.07287771590753139</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.009108600000004685</v>
+        <v>0.00200129999999632</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>153.6222127319037</v>
       </c>
       <c r="H34" t="n">
-        <v>7.280626046956021</v>
+        <v>7.280626046956023</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>14.5624603487018</v>
       </c>
       <c r="P34" t="n">
-        <v>19.99696128853311</v>
+        <v>19.9969612885331</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01994169346940156</v>
+        <v>0.01994169346940184</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2711931304267999</v>
+        <v>0.2711931304268022</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1013012858828112</v>
+        <v>0.1013012858828147</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2370831184105517</v>
+        <v>0.2370831184105534</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09093142142665182</v>
+        <v>0.09093142142665178</v>
       </c>
       <c r="V34" t="n">
-        <v>0.09970263372770261</v>
+        <v>0.09970263372770144</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002231300000005376</v>
+        <v>0.001768399999996006</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3291,10 +3291,10 @@
         <v>29.85526684847619</v>
       </c>
       <c r="G35" t="n">
-        <v>47.79000162773129</v>
+        <v>47.79000162773127</v>
       </c>
       <c r="H35" t="n">
-        <v>7.607616369180594</v>
+        <v>7.607616369180596</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3321,22 +3321,22 @@
         <v>34.31287046390957</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02231281213674552</v>
+        <v>0.02231281213674471</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3901003001482832</v>
+        <v>0.3901003001482514</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1584241820601503</v>
+        <v>0.1584241820601321</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3898982581177444</v>
+        <v>0.38989825811772</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08640486429467398</v>
+        <v>0.08640486429467395</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3708469268965943</v>
+        <v>0.3708469268965931</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001945299999988492</v>
+        <v>0.001560099999998954</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3370,13 +3370,13 @@
         <v>359.9870559746396</v>
       </c>
       <c r="F36" t="n">
-        <v>30.26707908614327</v>
+        <v>30.26707908614326</v>
       </c>
       <c r="G36" t="n">
         <v>7.297226870771868</v>
       </c>
       <c r="H36" t="n">
-        <v>11.93845634699354</v>
+        <v>11.93845634699356</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3400,25 +3400,25 @@
         <v>4.076377889482091</v>
       </c>
       <c r="P36" t="n">
-        <v>41.96699927754049</v>
+        <v>41.9669992775405</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02078902640088997</v>
+        <v>0.02078902640088982</v>
       </c>
       <c r="R36" t="n">
-        <v>0.6102497443389338</v>
+        <v>0.6102497443389374</v>
       </c>
       <c r="S36" t="n">
-        <v>0.08807223150259569</v>
+        <v>0.08807223150259508</v>
       </c>
       <c r="T36" t="n">
-        <v>1.005985995567096</v>
+        <v>1.005985995567088</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0859808963001072</v>
+        <v>0.08598089630010718</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1169078008726238</v>
+        <v>0.1169078008726193</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002037100000009673</v>
+        <v>0.001411099999998555</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9795383495816</v>
       </c>
       <c r="F37" t="n">
-        <v>30.13057193064483</v>
+        <v>30.13057193064484</v>
       </c>
       <c r="G37" t="n">
-        <v>83.13126239600706</v>
+        <v>83.13126239600705</v>
       </c>
       <c r="H37" t="n">
-        <v>6.748608935255089</v>
+        <v>6.748608935255092</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>17.90041917320327</v>
       </c>
       <c r="P37" t="n">
-        <v>29.93165546837571</v>
+        <v>29.93165546837572</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02238025246741806</v>
+        <v>0.02238025246741852</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3805266009008528</v>
+        <v>0.3805266009008446</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1737423388370087</v>
+        <v>0.1737423388370095</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2626695233407961</v>
+        <v>0.2626695233408042</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09393401952988127</v>
+        <v>0.09393401952988115</v>
       </c>
       <c r="V37" t="n">
-        <v>0.05896852461897109</v>
+        <v>0.05896852461897288</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002217500000000427</v>
+        <v>0.001659599999996431</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3534,7 +3534,7 @@
         <v>0.02834499395905147</v>
       </c>
       <c r="F38" t="n">
-        <v>29.69378538688369</v>
+        <v>29.69378538688368</v>
       </c>
       <c r="G38" t="n">
         <v>131.7481454643122</v>
@@ -3561,28 +3561,28 @@
         <v>21.94213719690333</v>
       </c>
       <c r="O38" t="n">
-        <v>28.30945089676979</v>
+        <v>28.30945089676978</v>
       </c>
       <c r="P38" t="n">
-        <v>21.58196157016093</v>
+        <v>21.58196157016091</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02129973644150254</v>
+        <v>0.02129973644150137</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3655235600981007</v>
+        <v>0.3655235600980624</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1829135899702079</v>
+        <v>0.182913589970185</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1135019997625829</v>
+        <v>0.1135019997625866</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09953195567119626</v>
+        <v>0.0995319556711964</v>
       </c>
       <c r="V38" t="n">
-        <v>0.07109801971391141</v>
+        <v>0.0710980197139216</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002521999999999025</v>
+        <v>0.002306099999998423</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3619,10 +3619,10 @@
         <v>30.16643706163415</v>
       </c>
       <c r="G39" t="n">
-        <v>168.5057433124951</v>
+        <v>168.505743312495</v>
       </c>
       <c r="H39" t="n">
-        <v>8.162188673669897</v>
+        <v>8.162188673669894</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,25 +3646,25 @@
         <v>9.785373757583166</v>
       </c>
       <c r="P39" t="n">
-        <v>18.21690314665881</v>
+        <v>18.21690314665882</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01852815315620808</v>
+        <v>0.01852815315620765</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2508080545907481</v>
+        <v>0.2508080545907523</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07193277604846289</v>
+        <v>0.07193277604846132</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3264011719937137</v>
+        <v>0.3264011719937048</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0868584058965774</v>
+        <v>0.08685840589657748</v>
       </c>
       <c r="V39" t="n">
-        <v>0.2413968991444361</v>
+        <v>0.2413968991444385</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002353900000002795</v>
+        <v>0.001727999999999952</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3731,22 +3731,22 @@
         <v>37.14570314914926</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02413702901878572</v>
+        <v>0.02413702901878518</v>
       </c>
       <c r="R40" t="n">
-        <v>0.488508008299871</v>
+        <v>0.4885080082998109</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3086513629664526</v>
+        <v>0.3086513629664159</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2341895549931538</v>
+        <v>0.2341895549931413</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09564980730980306</v>
+        <v>0.09564980730980317</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06336225321714448</v>
+        <v>0.06336225321714514</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002881599999994933</v>
+        <v>0.002086399999996047</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3813,22 +3813,22 @@
         <v>29.48955097656735</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02262153316128248</v>
+        <v>0.02262153316127751</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4496192238353757</v>
+        <v>0.4496192238351939</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2867559288637696</v>
+        <v>0.2867559288636385</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1181801909375322</v>
+        <v>0.118180190937523</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09400050901219961</v>
+        <v>0.09400050901219958</v>
       </c>
       <c r="V41" t="n">
-        <v>0.06730364382785893</v>
+        <v>0.06730364382785912</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003138499999991495</v>
+        <v>0.002002099999998563</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3895,19 +3895,19 @@
         <v>29.84449050057649</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02130613618987292</v>
+        <v>0.02130613618987301</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3505375438513502</v>
+        <v>0.3505375438513486</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1163736739250072</v>
+        <v>0.1163736739250064</v>
       </c>
       <c r="T42" t="n">
         <v>0.4171142596160442</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08719938425041286</v>
+        <v>0.08719938425041292</v>
       </c>
       <c r="V42" t="n">
         <v>0.3601641369762656</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002374799999998345</v>
+        <v>0.00175590000000625</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3950,7 +3950,7 @@
         <v>56.05483873136695</v>
       </c>
       <c r="H43" t="n">
-        <v>2.824861008886847</v>
+        <v>2.824861008886848</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         <v>7.829037846820349</v>
       </c>
       <c r="P43" t="n">
-        <v>29.51886501384436</v>
+        <v>29.51886501384437</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02041550774593549</v>
+        <v>0.02041550774593577</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3614102066290398</v>
+        <v>0.3614102066290408</v>
       </c>
       <c r="S43" t="n">
-        <v>0.09296145772118362</v>
+        <v>0.09296145772118672</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5209637565998191</v>
+        <v>0.5209637565998303</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09019821302542326</v>
+        <v>0.09019821302542334</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8548025796988208</v>
+        <v>0.8548025796988199</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.00381780000000731</v>
+        <v>0.001788900000001092</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.06321189014708878</v>
       </c>
       <c r="F44" t="n">
-        <v>29.93062183920275</v>
+        <v>29.93062183920276</v>
       </c>
       <c r="G44" t="n">
         <v>68.43612213555649</v>
       </c>
       <c r="H44" t="n">
-        <v>14.06654383454593</v>
+        <v>14.06654383454594</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,25 +4056,25 @@
         <v>26.75994863254468</v>
       </c>
       <c r="P44" t="n">
-        <v>37.53858702933482</v>
+        <v>37.53858702933483</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02356984189544663</v>
+        <v>0.02356984189544679</v>
       </c>
       <c r="R44" t="n">
-        <v>0.488838874391149</v>
+        <v>0.4888388743911336</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3185618750368398</v>
+        <v>0.318561875036834</v>
       </c>
       <c r="T44" t="n">
-        <v>0.2330614751996895</v>
+        <v>0.2330614751996925</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08437408394992328</v>
+        <v>0.08437408394992321</v>
       </c>
       <c r="V44" t="n">
-        <v>0.1163977762907088</v>
+        <v>0.1163977762907069</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002757599999995364</v>
+        <v>0.002066299999995636</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,7 +4108,7 @@
         <v>359.9766292054973</v>
       </c>
       <c r="F45" t="n">
-        <v>29.64116183871285</v>
+        <v>29.64116183871284</v>
       </c>
       <c r="G45" t="n">
         <v>19.8990425750432</v>
@@ -4135,28 +4135,28 @@
         <v>39.34753971841504</v>
       </c>
       <c r="O45" t="n">
-        <v>8.06028915390594</v>
+        <v>8.060289153905927</v>
       </c>
       <c r="P45" t="n">
         <v>39.52591680596105</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02201987280863967</v>
+        <v>0.02201987280863964</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4384630602292586</v>
+        <v>0.4384630602292561</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1259807755678255</v>
+        <v>0.1259807755678258</v>
       </c>
       <c r="T45" t="n">
-        <v>0.630904086217513</v>
+        <v>0.6309040862175092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0879987960948338</v>
+        <v>0.08799879609483389</v>
       </c>
       <c r="V45" t="n">
-        <v>0.1410031686405973</v>
+        <v>0.1410031686405975</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002048000000002048</v>
+        <v>0.001543800000000317</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4190,7 +4190,7 @@
         <v>0.009779539765564536</v>
       </c>
       <c r="F46" t="n">
-        <v>30.67268078768377</v>
+        <v>30.67268078768376</v>
       </c>
       <c r="G46" t="n">
         <v>149.6606288438658</v>
@@ -4223,22 +4223,22 @@
         <v>23.84700142034349</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02001108755434126</v>
+        <v>0.02001108755434137</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3081623828414204</v>
+        <v>0.3081623828414238</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08715198234736571</v>
+        <v>0.0871519823473679</v>
       </c>
       <c r="T46" t="n">
         <v>0.4056095033020958</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08978435166109373</v>
+        <v>0.08978435166109376</v>
       </c>
       <c r="V46" t="n">
-        <v>0.1314451474670338</v>
+        <v>0.1314451474670335</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002205399999994029</v>
+        <v>0.001702199999996878</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4305,22 +4305,22 @@
         <v>15.3977030902257</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01593777600922335</v>
+        <v>0.01593777600922326</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2888341574794051</v>
+        <v>0.2888341574794071</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04424149660209217</v>
+        <v>0.0442414966020916</v>
       </c>
       <c r="T47" t="n">
         <v>0.4254116259991879</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08480399968845224</v>
+        <v>0.0848039996884522</v>
       </c>
       <c r="V47" t="n">
-        <v>0.2224678698974135</v>
+        <v>0.2224678698974117</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001907500000001505</v>
+        <v>0.001466000000000633</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4387,19 +4387,19 @@
         <v>19.6380121184575</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02122951955570846</v>
+        <v>0.02122951955570685</v>
       </c>
       <c r="R48" t="n">
-        <v>0.3547021412714944</v>
+        <v>0.3547021412714689</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1668473146796501</v>
+        <v>0.1668473146796309</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1126913261242911</v>
+        <v>0.1126913261242933</v>
       </c>
       <c r="U48" t="n">
-        <v>0.09274376987247887</v>
+        <v>0.09274376987247898</v>
       </c>
       <c r="V48" t="n">
         <v>0.03470671075602741</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002477900000002364</v>
+        <v>0.002531900000001031</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,10 +4436,10 @@
         <v>0.009546868767809613</v>
       </c>
       <c r="F49" t="n">
-        <v>30.22876162538262</v>
+        <v>30.22876162538263</v>
       </c>
       <c r="G49" t="n">
-        <v>20.68255131734374</v>
+        <v>20.68255131734376</v>
       </c>
       <c r="H49" t="n">
         <v>14.49235360354634</v>
@@ -4466,25 +4466,25 @@
         <v>9.467428934176203</v>
       </c>
       <c r="P49" t="n">
-        <v>44.48837713413164</v>
+        <v>44.48837713413165</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02355787911763898</v>
+        <v>0.02355787911763981</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4808239995304238</v>
+        <v>0.4808239995304311</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1630947462367635</v>
+        <v>0.1630947462367733</v>
       </c>
       <c r="T49" t="n">
-        <v>0.6431782202389527</v>
+        <v>0.6431782202389863</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0896218611339947</v>
+        <v>0.08962186113399478</v>
       </c>
       <c r="V49" t="n">
-        <v>0.04249575514667928</v>
+        <v>0.04249575514667815</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001928899999995792</v>
+        <v>0.001462200000005964</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4551,19 +4551,19 @@
         <v>43.69787608993627</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01919403851401114</v>
+        <v>0.01919403851401117</v>
       </c>
       <c r="R50" t="n">
-        <v>0.7666656298710336</v>
+        <v>0.7666656298710367</v>
       </c>
       <c r="S50" t="n">
-        <v>0.07196996800280775</v>
+        <v>0.07196996800280794</v>
       </c>
       <c r="T50" t="n">
-        <v>1.254703566542484</v>
+        <v>1.254703566542488</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0916896657510458</v>
+        <v>0.09168966575104574</v>
       </c>
       <c r="V50" t="n">
         <v>0.09097000389673905</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003598900000000071</v>
+        <v>0.001403700000004449</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>29.58537000825049</v>
       </c>
       <c r="G51" t="n">
-        <v>52.87270559912123</v>
+        <v>52.87270559912119</v>
       </c>
       <c r="H51" t="n">
-        <v>5.980250549639453</v>
+        <v>5.980250549639457</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
         <v>32.33427654125745</v>
       </c>
       <c r="O51" t="n">
-        <v>12.40884616637484</v>
+        <v>12.40884616637482</v>
       </c>
       <c r="P51" t="n">
-        <v>32.04923364710408</v>
+        <v>32.04923364710409</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02169818625365896</v>
+        <v>0.02169818625365909</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3632342896550479</v>
+        <v>0.3632342896550462</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1380373080576351</v>
+        <v>0.1380373080576344</v>
       </c>
       <c r="T51" t="n">
-        <v>0.3871383287338972</v>
+        <v>0.387138328733899</v>
       </c>
       <c r="U51" t="n">
         <v>0.08191023571109594</v>
       </c>
       <c r="V51" t="n">
-        <v>0.06536476732260077</v>
+        <v>0.06536476732261008</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002261200000006625</v>
+        <v>0.001627900000002569</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4685,10 +4685,10 @@
         <v>29.96065712021808</v>
       </c>
       <c r="G52" t="n">
-        <v>87.65150060856544</v>
+        <v>87.65150060856541</v>
       </c>
       <c r="H52" t="n">
-        <v>5.784867288725612</v>
+        <v>5.784867288725613</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>16.34523868592657</v>
       </c>
       <c r="P52" t="n">
-        <v>28.79244735678905</v>
+        <v>28.79244735678906</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.02190251511414664</v>
+        <v>0.0219025151141468</v>
       </c>
       <c r="R52" t="n">
-        <v>0.359041308176231</v>
+        <v>0.3590413081762439</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1545185723857375</v>
+        <v>0.1545185723857426</v>
       </c>
       <c r="T52" t="n">
-        <v>0.2770640548407363</v>
+        <v>0.277064054840739</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08823482026640096</v>
+        <v>0.08823482026640078</v>
       </c>
       <c r="V52" t="n">
-        <v>0.06871071570160175</v>
+        <v>0.06871071570160345</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001934099999999717</v>
+        <v>0.001524200000005749</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4764,13 +4764,13 @@
         <v>359.998407249036</v>
       </c>
       <c r="F53" t="n">
-        <v>29.67403870055756</v>
+        <v>29.67403870055755</v>
       </c>
       <c r="G53" t="n">
-        <v>113.8314654701062</v>
+        <v>113.8314654701061</v>
       </c>
       <c r="H53" t="n">
-        <v>3.319349442785946</v>
+        <v>3.319349442785943</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4791,28 +4791,28 @@
         <v>25.60870945161991</v>
       </c>
       <c r="O53" t="n">
-        <v>10.71028477288023</v>
+        <v>10.71028477288022</v>
       </c>
       <c r="P53" t="n">
         <v>25.89944811908371</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02026583023618415</v>
+        <v>0.02026583023618382</v>
       </c>
       <c r="R53" t="n">
-        <v>0.3098934091923953</v>
+        <v>0.3098934091923929</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1011846606347363</v>
+        <v>0.101184660634733</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3716005202338208</v>
+        <v>0.3716005202338143</v>
       </c>
       <c r="U53" t="n">
-        <v>0.08758840512965521</v>
+        <v>0.0875884051296552</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3814869937829001</v>
+        <v>0.3814869937829118</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002239299999999389</v>
+        <v>0.001628800000005981</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4846,13 +4846,13 @@
         <v>359.9429928272252</v>
       </c>
       <c r="F54" t="n">
-        <v>30.40587136833116</v>
+        <v>30.40587136833117</v>
       </c>
       <c r="G54" t="n">
-        <v>139.1235314012323</v>
+        <v>139.1235314012322</v>
       </c>
       <c r="H54" t="n">
-        <v>2.935630032984447</v>
+        <v>2.935630032984448</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4879,22 +4879,22 @@
         <v>25.36101278794865</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01961819839322979</v>
+        <v>0.01961819839322935</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3295396642246443</v>
+        <v>0.329539664224648</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08181289762174584</v>
+        <v>0.08181289762174393</v>
       </c>
       <c r="T54" t="n">
-        <v>0.4708746056929499</v>
+        <v>0.4708746056929367</v>
       </c>
       <c r="U54" t="n">
         <v>0.08308885582870207</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6029780807431184</v>
+        <v>0.6029780807431189</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.00216389999999933</v>
+        <v>0.001610499999998183</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,7 +4928,7 @@
         <v>359.9711122543579</v>
       </c>
       <c r="F55" t="n">
-        <v>29.9809773763903</v>
+        <v>29.98097737639029</v>
       </c>
       <c r="G55" t="n">
         <v>151.857775092773</v>
@@ -4955,28 +4955,28 @@
         <v>18.25980426170813</v>
       </c>
       <c r="O55" t="n">
-        <v>21.14452171498396</v>
+        <v>21.14452171498397</v>
       </c>
       <c r="P55" t="n">
-        <v>18.37189993866728</v>
+        <v>18.37189993866726</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02061762974328433</v>
+        <v>0.02061762974328462</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3018004378855646</v>
+        <v>0.3018004378855816</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1264210989973326</v>
+        <v>0.1264210989973364</v>
       </c>
       <c r="T55" t="n">
-        <v>0.1466634531527407</v>
+        <v>0.1466634531527455</v>
       </c>
       <c r="U55" t="n">
-        <v>0.1009635607687673</v>
+        <v>0.1009635607687674</v>
       </c>
       <c r="V55" t="n">
-        <v>0.04456434726273462</v>
+        <v>0.04456434726273301</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002490899999997964</v>
+        <v>0.001937600000005091</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5010,13 +5010,13 @@
         <v>0.05887576042271325</v>
       </c>
       <c r="F56" t="n">
-        <v>29.51284839520952</v>
+        <v>29.51284839520951</v>
       </c>
       <c r="G56" t="n">
-        <v>77.76886862964001</v>
+        <v>77.76886862964</v>
       </c>
       <c r="H56" t="n">
-        <v>7.008446571523539</v>
+        <v>7.008446571523536</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>18.18395164429041</v>
       </c>
       <c r="P56" t="n">
-        <v>30.18569551286812</v>
+        <v>30.18569551286811</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02189996513514701</v>
+        <v>0.02189996513514742</v>
       </c>
       <c r="R56" t="n">
-        <v>0.3721908365764802</v>
+        <v>0.3721908365764939</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1746214392327019</v>
+        <v>0.1746214392327119</v>
       </c>
       <c r="T56" t="n">
-        <v>0.2612086190519214</v>
+        <v>0.2612086190519271</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08854300181297367</v>
+        <v>0.08854300181297371</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2276930715501776</v>
+        <v>0.2276930715501789</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002326400000001172</v>
+        <v>0.001766699999997456</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5098,7 +5098,7 @@
         <v>16.72916258959062</v>
       </c>
       <c r="H57" t="n">
-        <v>15.11140687672536</v>
+        <v>15.11140687672535</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5125,22 +5125,22 @@
         <v>45.36560635582517</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02328623045034967</v>
+        <v>0.02328623045034964</v>
       </c>
       <c r="R57" t="n">
-        <v>0.4970342936089711</v>
+        <v>0.4970342936089787</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1482937414149772</v>
+        <v>0.1482937414149804</v>
       </c>
       <c r="T57" t="n">
-        <v>0.7196545667922721</v>
+        <v>0.7196545667922751</v>
       </c>
       <c r="U57" t="n">
-        <v>0.08792957722948816</v>
+        <v>0.0879295772294882</v>
       </c>
       <c r="V57" t="n">
-        <v>0.114682312655348</v>
+        <v>0.1146823126553473</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002205099999997628</v>
+        <v>0.001459099999998159</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5174,13 +5174,13 @@
         <v>359.9736700853759</v>
       </c>
       <c r="F58" t="n">
-        <v>30.07933655511801</v>
+        <v>30.07933655511802</v>
       </c>
       <c r="G58" t="n">
         <v>176.621802664572</v>
       </c>
       <c r="H58" t="n">
-        <v>6.789348501579443</v>
+        <v>6.789348501579442</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>19.39907898511555</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01641586384563528</v>
+        <v>0.01641586384563553</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3477964913226548</v>
+        <v>0.3477964913226598</v>
       </c>
       <c r="S58" t="n">
-        <v>0.04839451639235987</v>
+        <v>0.04839451639236089</v>
       </c>
       <c r="T58" t="n">
-        <v>0.5232228672558918</v>
+        <v>0.5232228672559054</v>
       </c>
       <c r="U58" t="n">
-        <v>0.08636168480008333</v>
+        <v>0.08636168480008331</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1340918019750751</v>
+        <v>0.1340918019750754</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001975100000009888</v>
+        <v>0.001980799999998339</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5262,7 +5262,7 @@
         <v>13.44267261954692</v>
       </c>
       <c r="H59" t="n">
-        <v>7.030017157492383</v>
+        <v>7.030017157492391</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>5.10380742360686</v>
       </c>
       <c r="P59" t="n">
-        <v>35.05265512141459</v>
+        <v>35.0526551214146</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01969001261044746</v>
+        <v>0.01969001261044802</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4695438256727701</v>
+        <v>0.4695438256727761</v>
       </c>
       <c r="S59" t="n">
-        <v>0.08253803367847914</v>
+        <v>0.08253803367848113</v>
       </c>
       <c r="T59" t="n">
-        <v>0.7539672898484423</v>
+        <v>0.7539672898484662</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09817046424390648</v>
+        <v>0.09817046424390637</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6497669747237795</v>
+        <v>0.6497669747237833</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003434200000000942</v>
+        <v>0.001453399999995497</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>29.24494914321598</v>
       </c>
       <c r="G60" t="n">
-        <v>63.80637529435658</v>
+        <v>63.80637529435663</v>
       </c>
       <c r="H60" t="n">
-        <v>8.367100433574748</v>
+        <v>8.367100433574741</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>18.13366235869011</v>
       </c>
       <c r="P60" t="n">
-        <v>32.68383875313377</v>
+        <v>32.68383875313376</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.02225243718687353</v>
+        <v>0.02225243718687187</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3872609283128602</v>
+        <v>0.3872609283128031</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1888493294681092</v>
+        <v>0.1888493294680727</v>
       </c>
       <c r="T60" t="n">
-        <v>0.2842534635026336</v>
+        <v>0.2842534635026031</v>
       </c>
       <c r="U60" t="n">
-        <v>0.08479084013740873</v>
+        <v>0.08479084013740884</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1068361958592883</v>
+        <v>0.1068361958592897</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002544000000000324</v>
+        <v>0.001844399999995971</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5417,7 +5417,7 @@
         <v>4.894446966417504</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02720412529957847</v>
+        <v>0.02720412529956575</v>
       </c>
       <c r="F61" t="n">
         <v>29.80984501307486</v>
@@ -5426,7 +5426,7 @@
         <v>167.8976531236985</v>
       </c>
       <c r="H61" t="n">
-        <v>5.130436873987254</v>
+        <v>5.130436873987249</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5453,22 +5453,22 @@
         <v>21.31798991878605</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01794333756230286</v>
+        <v>0.01794333756230289</v>
       </c>
       <c r="R61" t="n">
-        <v>0.310108351783416</v>
+        <v>0.3101083517834149</v>
       </c>
       <c r="S61" t="n">
-        <v>0.06289704473458084</v>
+        <v>0.0628970447345823</v>
       </c>
       <c r="T61" t="n">
         <v>0.4657886226963531</v>
       </c>
       <c r="U61" t="n">
-        <v>0.09041112192613013</v>
+        <v>0.09041112192613023</v>
       </c>
       <c r="V61" t="n">
-        <v>0.2147997589392173</v>
+        <v>0.2147997589392148</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002171599999996943</v>
+        <v>0.00161860000000047</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,13 +5502,13 @@
         <v>359.9649712181107</v>
       </c>
       <c r="F62" t="n">
-        <v>30.59009729408761</v>
+        <v>30.5900972940876</v>
       </c>
       <c r="G62" t="n">
-        <v>53.32008041375963</v>
+        <v>53.32008041375954</v>
       </c>
       <c r="H62" t="n">
-        <v>5.553049407708422</v>
+        <v>5.553049407708429</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>32.60781226201028</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02226989404645607</v>
+        <v>0.02226989404645737</v>
       </c>
       <c r="R62" t="n">
-        <v>0.3820090076602681</v>
+        <v>0.3820090076602811</v>
       </c>
       <c r="S62" t="n">
-        <v>0.1359048432273699</v>
+        <v>0.1359048432273825</v>
       </c>
       <c r="T62" t="n">
-        <v>0.4227076790768031</v>
+        <v>0.4227076790768342</v>
       </c>
       <c r="U62" t="n">
-        <v>0.09636449397432302</v>
+        <v>0.09636449397432303</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2364628461915717</v>
+        <v>0.2364628461915779</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002217199999989816</v>
+        <v>0.001754699999999332</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>147.8390301318309</v>
       </c>
       <c r="H63" t="n">
-        <v>5.208411313125023</v>
+        <v>5.208411313125024</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5617,22 +5617,22 @@
         <v>22.83346366073916</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0201585364615043</v>
+        <v>0.02015853646150399</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2914533073316211</v>
+        <v>0.2914533073316366</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0960836994894535</v>
+        <v>0.09608369948945412</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3293638283861527</v>
+        <v>0.3293638283861436</v>
       </c>
       <c r="U63" t="n">
-        <v>0.09283492100007604</v>
+        <v>0.09283492100007594</v>
       </c>
       <c r="V63" t="n">
-        <v>0.06640952285366172</v>
+        <v>0.06640952285366242</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002192300000004366</v>
+        <v>0.001657700000002649</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>6.602464432899134</v>
       </c>
       <c r="H64" t="n">
-        <v>8.109798082557457</v>
+        <v>8.109798082557463</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>3.479237555870692</v>
       </c>
       <c r="P64" t="n">
-        <v>37.92355066757662</v>
+        <v>37.92355066757663</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01993889884129925</v>
+        <v>0.01993889884129944</v>
       </c>
       <c r="R64" t="n">
-        <v>0.6317067384415027</v>
+        <v>0.6317067384415048</v>
       </c>
       <c r="S64" t="n">
-        <v>0.07393603084101774</v>
+        <v>0.07393603084101788</v>
       </c>
       <c r="T64" t="n">
-        <v>1.022773545326952</v>
+        <v>1.02277354532696</v>
       </c>
       <c r="U64" t="n">
-        <v>0.08046173231335849</v>
+        <v>0.08046173231335835</v>
       </c>
       <c r="V64" t="n">
-        <v>0.2364657468221946</v>
+        <v>0.2364657468221925</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001986500000001001</v>
+        <v>0.001412199999997199</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9894997725592</v>
       </c>
       <c r="F65" t="n">
-        <v>30.19109366696932</v>
+        <v>30.19109366696931</v>
       </c>
       <c r="G65" t="n">
-        <v>100.2756233881349</v>
+        <v>100.275623388135</v>
       </c>
       <c r="H65" t="n">
-        <v>7.802642815672029</v>
+        <v>7.802642815672023</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>27.80920715278775</v>
       </c>
       <c r="O65" t="n">
-        <v>21.83213773020189</v>
+        <v>21.8321377302019</v>
       </c>
       <c r="P65" t="n">
-        <v>27.90598486367767</v>
+        <v>27.90598486367765</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.0223746661746526</v>
+        <v>0.02237466617465303</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3881321386612772</v>
+        <v>0.3881321386613241</v>
       </c>
       <c r="S65" t="n">
-        <v>0.190884769019952</v>
+        <v>0.1908847690199733</v>
       </c>
       <c r="T65" t="n">
         <v>0.1958382861104553</v>
       </c>
       <c r="U65" t="n">
-        <v>0.08636875530649096</v>
+        <v>0.08636875530649071</v>
       </c>
       <c r="V65" t="n">
-        <v>0.03598746283514396</v>
+        <v>0.03598746283513499</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002411599999987857</v>
+        <v>0.002189799999996467</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5833,10 +5833,10 @@
         <v>30.04198443554274</v>
       </c>
       <c r="G66" t="n">
-        <v>69.3112620764049</v>
+        <v>69.31126207640489</v>
       </c>
       <c r="H66" t="n">
-        <v>9.616000429588524</v>
+        <v>9.616000429588528</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5863,22 +5863,22 @@
         <v>33.71352775164444</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.02287538175831904</v>
+        <v>0.02287538175831838</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4267231301609141</v>
+        <v>0.4267231301608871</v>
       </c>
       <c r="S66" t="n">
-        <v>0.2240921356772543</v>
+        <v>0.2240921356772394</v>
       </c>
       <c r="T66" t="n">
-        <v>0.2585580941185993</v>
+        <v>0.2585580941185894</v>
       </c>
       <c r="U66" t="n">
-        <v>0.09717210576879494</v>
+        <v>0.09717210576879508</v>
       </c>
       <c r="V66" t="n">
-        <v>0.08918150030035857</v>
+        <v>0.08918150030035694</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.004280199999996626</v>
+        <v>0.001829900000004159</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>29.90814771695834</v>
       </c>
       <c r="G67" t="n">
-        <v>38.76549171654431</v>
+        <v>38.76549171654421</v>
       </c>
       <c r="H67" t="n">
-        <v>3.356475130901718</v>
+        <v>3.356475130901727</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,25 +5942,25 @@
         <v>6.959646983057545</v>
       </c>
       <c r="P67" t="n">
-        <v>30.65818805697806</v>
+        <v>30.65818805697808</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02024699168726476</v>
+        <v>0.02024699168726464</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3840504723516421</v>
+        <v>0.3840504723516385</v>
       </c>
       <c r="S67" t="n">
-        <v>0.08914145393175661</v>
+        <v>0.08914145393175377</v>
       </c>
       <c r="T67" t="n">
-        <v>0.5770641939735298</v>
+        <v>0.5770641939735237</v>
       </c>
       <c r="U67" t="n">
         <v>0.08929444104678831</v>
       </c>
       <c r="V67" t="n">
-        <v>0.04145566332753346</v>
+        <v>0.04145566332752824</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002136899999996444</v>
+        <v>0.001674800000003529</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,10 +5997,10 @@
         <v>29.67321741846571</v>
       </c>
       <c r="G68" t="n">
-        <v>28.71077587762019</v>
+        <v>28.71077587762022</v>
       </c>
       <c r="H68" t="n">
-        <v>4.328542538896972</v>
+        <v>4.32854253889697</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>31.8227112373752</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.0200612200485501</v>
+        <v>0.02006122004854986</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3974301737508199</v>
+        <v>0.3974301737508183</v>
       </c>
       <c r="S68" t="n">
-        <v>0.08868972994603848</v>
+        <v>0.08868972994603824</v>
       </c>
       <c r="T68" t="n">
-        <v>0.6067622360594309</v>
+        <v>0.6067622360594204</v>
       </c>
       <c r="U68" t="n">
-        <v>0.08831293180843013</v>
+        <v>0.08831293180843006</v>
       </c>
       <c r="V68" t="n">
-        <v>0.2148956386801209</v>
+        <v>0.2148956386801228</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003187199999999279</v>
+        <v>0.002403299999997444</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,7 +6076,7 @@
         <v>0.07731072793018581</v>
       </c>
       <c r="F69" t="n">
-        <v>29.41837484948859</v>
+        <v>29.4183748494886</v>
       </c>
       <c r="G69" t="n">
         <v>98.68173736637841</v>
@@ -6103,28 +6103,28 @@
         <v>30.29280265083704</v>
       </c>
       <c r="O69" t="n">
-        <v>34.00606385084938</v>
+        <v>34.00606385084939</v>
       </c>
       <c r="P69" t="n">
         <v>29.51380294075908</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.02222826329826585</v>
+        <v>0.02222826329826477</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4530236525671202</v>
+        <v>0.4530236525669906</v>
       </c>
       <c r="S69" t="n">
-        <v>0.2975214264668917</v>
+        <v>0.2975214264668142</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1107239891646854</v>
+        <v>0.1107239891646874</v>
       </c>
       <c r="U69" t="n">
-        <v>0.08771344228157482</v>
+        <v>0.08771344228157488</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1482681910959052</v>
+        <v>0.1482681910959043</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002967000000012376</v>
+        <v>0.002290799999997262</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6158,13 +6158,13 @@
         <v>359.9748945549363</v>
       </c>
       <c r="F70" t="n">
-        <v>29.83140547482463</v>
+        <v>29.83140547482462</v>
       </c>
       <c r="G70" t="n">
-        <v>48.15661861764934</v>
+        <v>48.15661861764939</v>
       </c>
       <c r="H70" t="n">
-        <v>3.38882521413864</v>
+        <v>3.388825214138636</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>7.963932796115242</v>
       </c>
       <c r="P70" t="n">
-        <v>30.21929975103232</v>
+        <v>30.21929975103231</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02040400412822252</v>
+        <v>0.0204040041282219</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3627050791175053</v>
+        <v>0.3627050791174993</v>
       </c>
       <c r="S70" t="n">
-        <v>0.09582941409337171</v>
+        <v>0.09582941409336886</v>
       </c>
       <c r="T70" t="n">
-        <v>0.5174594888454384</v>
+        <v>0.5174594888454186</v>
       </c>
       <c r="U70" t="n">
         <v>0.09054515084630745</v>
       </c>
       <c r="V70" t="n">
-        <v>0.1532963376740775</v>
+        <v>0.1532963376740816</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002263700000000313</v>
+        <v>0.001679799999998011</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,10 +6240,10 @@
         <v>0.04749753095009199</v>
       </c>
       <c r="F71" t="n">
-        <v>29.03120371892944</v>
+        <v>29.03120371892943</v>
       </c>
       <c r="G71" t="n">
-        <v>53.19874554685268</v>
+        <v>53.19874554685264</v>
       </c>
       <c r="H71" t="n">
         <v>12.14457526035428</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="N71" t="n">
         <v>38.87559435981993</v>
@@ -6273,22 +6273,22 @@
         <v>37.42518474967287</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02280686640252894</v>
+        <v>0.02280686640252787</v>
       </c>
       <c r="R71" t="n">
-        <v>0.430992132561089</v>
+        <v>0.4309921325610786</v>
       </c>
       <c r="S71" t="n">
-        <v>0.2397444144531317</v>
+        <v>0.2397444144531189</v>
       </c>
       <c r="T71" t="n">
-        <v>0.3088129178293184</v>
+        <v>0.3088129178292979</v>
       </c>
       <c r="U71" t="n">
-        <v>0.09410656454604936</v>
+        <v>0.09410656454604938</v>
       </c>
       <c r="V71" t="n">
-        <v>0.191880130285059</v>
+        <v>0.1918801302850527</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002544299999996724</v>
+        <v>0.002762399999994614</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,10 +6322,10 @@
         <v>0.0354009911893223</v>
       </c>
       <c r="F72" t="n">
-        <v>29.73291697439393</v>
+        <v>29.73291697439392</v>
       </c>
       <c r="G72" t="n">
-        <v>167.2808326882562</v>
+        <v>167.2808326882563</v>
       </c>
       <c r="H72" t="n">
         <v>13.38463085613213</v>
@@ -6349,28 +6349,28 @@
         <v>12.59736678041878</v>
       </c>
       <c r="O72" t="n">
-        <v>22.42629902722947</v>
+        <v>22.42629902722945</v>
       </c>
       <c r="P72" t="n">
-        <v>12.38585693539058</v>
+        <v>12.38585693539057</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01936233366908285</v>
+        <v>0.01936233366908298</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2581727357491384</v>
+        <v>0.2581727357491411</v>
       </c>
       <c r="S72" t="n">
-        <v>0.09977246958445543</v>
+        <v>0.0997724695844559</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1142681556407527</v>
+        <v>0.1142681556407542</v>
       </c>
       <c r="U72" t="n">
-        <v>0.09084907103178326</v>
+        <v>0.09084907103178334</v>
       </c>
       <c r="V72" t="n">
-        <v>0.07072543890661212</v>
+        <v>0.07072543890661387</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002498199999990902</v>
+        <v>0.00189280000000025</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6407,10 +6407,10 @@
         <v>30.2131232117105</v>
       </c>
       <c r="G73" t="n">
-        <v>35.32874678246117</v>
+        <v>35.32874678246121</v>
       </c>
       <c r="H73" t="n">
-        <v>7.143429061157698</v>
+        <v>7.14342906115769</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>10.06294485879568</v>
       </c>
       <c r="P73" t="n">
-        <v>35.13073529779319</v>
+        <v>35.13073529779318</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.02216440795818007</v>
+        <v>0.02216440795818102</v>
       </c>
       <c r="R73" t="n">
-        <v>0.3978363113766195</v>
+        <v>0.3978363113766119</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1318598793246494</v>
+        <v>0.1318598793246548</v>
       </c>
       <c r="T73" t="n">
-        <v>0.4967486403007506</v>
+        <v>0.4967486403007816</v>
       </c>
       <c r="U73" t="n">
-        <v>0.08809988551445953</v>
+        <v>0.08809988551445957</v>
       </c>
       <c r="V73" t="n">
-        <v>0.231732291383584</v>
+        <v>0.2317322913835876</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.00220880000000534</v>
+        <v>0.001673600000003717</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6516,25 +6516,25 @@
         <v>7.955727159683387</v>
       </c>
       <c r="P74" t="n">
-        <v>41.0234885068985</v>
+        <v>41.02348850689851</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.02242249575354412</v>
+        <v>0.0224224957535442</v>
       </c>
       <c r="R74" t="n">
-        <v>0.4571946137615537</v>
+        <v>0.4571946137615502</v>
       </c>
       <c r="S74" t="n">
-        <v>0.130740746154092</v>
+        <v>0.1307407461540908</v>
       </c>
       <c r="T74" t="n">
-        <v>0.6605339713094753</v>
+        <v>0.6605339713094777</v>
       </c>
       <c r="U74" t="n">
-        <v>0.09080298775196315</v>
+        <v>0.09080298775196324</v>
       </c>
       <c r="V74" t="n">
-        <v>0.1445751664830933</v>
+        <v>0.1445751664830936</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001930200000003879</v>
+        <v>0.001539300000004573</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6574,7 +6574,7 @@
         <v>114.9368702812435</v>
       </c>
       <c r="H75" t="n">
-        <v>9.702353592503222</v>
+        <v>9.702353592503224</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>25.81765867850636</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02260112768299413</v>
+        <v>0.02260112768299225</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4097375850057771</v>
+        <v>0.4097375850057407</v>
       </c>
       <c r="S75" t="n">
-        <v>0.2137966472598373</v>
+        <v>0.2137966472598098</v>
       </c>
       <c r="T75" t="n">
-        <v>0.1362496467201167</v>
+        <v>0.1362496467201109</v>
       </c>
       <c r="U75" t="n">
-        <v>0.08195676284337658</v>
+        <v>0.08195676284337632</v>
       </c>
       <c r="V75" t="n">
-        <v>0.1401063171162337</v>
+        <v>0.1401063171162344</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004352300000007858</v>
+        <v>0.002111999999996783</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6650,10 +6650,10 @@
         <v>359.9730036950722</v>
       </c>
       <c r="F76" t="n">
-        <v>29.8740557628474</v>
+        <v>29.87405576284739</v>
       </c>
       <c r="G76" t="n">
-        <v>36.48934442328466</v>
+        <v>36.48934442328468</v>
       </c>
       <c r="H76" t="n">
         <v>12.30762255947142</v>
@@ -6680,25 +6680,25 @@
         <v>14.25142233301352</v>
       </c>
       <c r="P76" t="n">
-        <v>40.37412559571361</v>
+        <v>40.3741255957136</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.0234779810174311</v>
+        <v>0.02347798101743166</v>
       </c>
       <c r="R76" t="n">
-        <v>0.4445697932210183</v>
+        <v>0.4445697932210361</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1995728966938181</v>
+        <v>0.1995728966938315</v>
       </c>
       <c r="T76" t="n">
-        <v>0.4412118752022827</v>
+        <v>0.4412118752023045</v>
       </c>
       <c r="U76" t="n">
-        <v>0.08194617703448592</v>
+        <v>0.0819461770344857</v>
       </c>
       <c r="V76" t="n">
-        <v>0.03737238614205535</v>
+        <v>0.03737238614205807</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002677500000004329</v>
+        <v>0.001846999999997934</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6732,13 +6732,13 @@
         <v>359.9419305963198</v>
       </c>
       <c r="F77" t="n">
-        <v>30.54821837784064</v>
+        <v>30.54821837784065</v>
       </c>
       <c r="G77" t="n">
         <v>99.26606408049555</v>
       </c>
       <c r="H77" t="n">
-        <v>3.948739137435875</v>
+        <v>3.948739137435877</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>12.08316734284735</v>
       </c>
       <c r="P77" t="n">
-        <v>27.78442249540739</v>
+        <v>27.7844224954074</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.02149701561123963</v>
+        <v>0.02149701561123914</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3404685822342147</v>
+        <v>0.3404685822342003</v>
       </c>
       <c r="S77" t="n">
-        <v>0.1205146833957469</v>
+        <v>0.1205146833957411</v>
       </c>
       <c r="T77" t="n">
-        <v>0.3566369346540877</v>
+        <v>0.3566369346540791</v>
       </c>
       <c r="U77" t="n">
-        <v>0.08625765871678416</v>
+        <v>0.08625765871678411</v>
       </c>
       <c r="V77" t="n">
-        <v>0.250998277529685</v>
+        <v>0.2509982775296866</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003954399999997804</v>
+        <v>0.001626299999998082</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,13 +6814,13 @@
         <v>359.9789003769407</v>
       </c>
       <c r="F78" t="n">
-        <v>29.8658680699812</v>
+        <v>29.86586806998121</v>
       </c>
       <c r="G78" t="n">
         <v>55.95421828548687</v>
       </c>
       <c r="H78" t="n">
-        <v>12.8073691035555</v>
+        <v>12.80736910355552</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6844,25 +6844,25 @@
         <v>21.18214692513822</v>
       </c>
       <c r="P78" t="n">
-        <v>38.45176806875894</v>
+        <v>38.45176806875897</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.02371750266857361</v>
+        <v>0.02371750266857567</v>
       </c>
       <c r="R78" t="n">
-        <v>0.4633138502900744</v>
+        <v>0.4633138502901988</v>
       </c>
       <c r="S78" t="n">
-        <v>0.2643695340728412</v>
+        <v>0.26436953407292</v>
       </c>
       <c r="T78" t="n">
-        <v>0.3053672815967855</v>
+        <v>0.3053672815968413</v>
       </c>
       <c r="U78" t="n">
-        <v>0.08580592984092653</v>
+        <v>0.08580592984092664</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01996435780313613</v>
+        <v>0.01996435780313279</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002727399999997715</v>
+        <v>0.002140499999995882</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6896,13 +6896,13 @@
         <v>0.01058499640015618</v>
       </c>
       <c r="F79" t="n">
-        <v>29.95562905247478</v>
+        <v>29.95562905247479</v>
       </c>
       <c r="G79" t="n">
         <v>165.3081515042644</v>
       </c>
       <c r="H79" t="n">
-        <v>10.62624167496662</v>
+        <v>10.62624167496663</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6929,22 +6929,22 @@
         <v>15.63935318002937</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.01936027354224551</v>
+        <v>0.01936027354224576</v>
       </c>
       <c r="R79" t="n">
-        <v>0.2450143794207104</v>
+        <v>0.2450143794207005</v>
       </c>
       <c r="S79" t="n">
-        <v>0.09207949465169557</v>
+        <v>0.09207949465169595</v>
       </c>
       <c r="T79" t="n">
         <v>0.1828883514236842</v>
       </c>
       <c r="U79" t="n">
-        <v>0.08987815515437138</v>
+        <v>0.08987815515437124</v>
       </c>
       <c r="V79" t="n">
-        <v>0.03402910797184709</v>
+        <v>0.03402910797184627</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002726499999994303</v>
+        <v>0.001811099999997623</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7011,19 +7011,19 @@
         <v>40.78692224781926</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.02110969107524405</v>
+        <v>0.02110969107524407</v>
       </c>
       <c r="R80" t="n">
-        <v>0.5700641020716283</v>
+        <v>0.5700641020716272</v>
       </c>
       <c r="S80" t="n">
-        <v>0.09199262130103997</v>
+        <v>0.09199262130104022</v>
       </c>
       <c r="T80" t="n">
-        <v>0.9308642359717347</v>
+        <v>0.930864235971738</v>
       </c>
       <c r="U80" t="n">
-        <v>0.09039817701533581</v>
+        <v>0.09039817701533591</v>
       </c>
       <c r="V80" t="n">
         <v>0.1459586441525953</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001984300000003714</v>
+        <v>0.001467500000003952</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>359.9124072896225</v>
       </c>
       <c r="F81" t="n">
-        <v>30.3467539106803</v>
+        <v>30.34675391068031</v>
       </c>
       <c r="G81" t="n">
-        <v>87.38680341674102</v>
+        <v>87.38680341674103</v>
       </c>
       <c r="H81" t="n">
-        <v>8.960484728759941</v>
+        <v>8.960484728759944</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7087,28 +7087,28 @@
         <v>29.68449734234962</v>
       </c>
       <c r="O81" t="n">
-        <v>22.8045084251389</v>
+        <v>22.80450842513891</v>
       </c>
       <c r="P81" t="n">
-        <v>30.61358157000981</v>
+        <v>30.61358157000982</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02317796374801973</v>
+        <v>0.02317796374801961</v>
       </c>
       <c r="R81" t="n">
-        <v>0.4194239353186739</v>
+        <v>0.4194239353186635</v>
       </c>
       <c r="S81" t="n">
-        <v>0.219721201970099</v>
+        <v>0.2197212019700926</v>
       </c>
       <c r="T81" t="n">
         <v>0.2054698019798917</v>
       </c>
       <c r="U81" t="n">
-        <v>0.08491106135595816</v>
+        <v>0.08491106135595823</v>
       </c>
       <c r="V81" t="n">
-        <v>0.222956639902747</v>
+        <v>0.2229566399027416</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002444699999998079</v>
+        <v>0.001904400000000805</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7169,28 +7169,28 @@
         <v>30.30774104493361</v>
       </c>
       <c r="O82" t="n">
-        <v>29.29940768909685</v>
+        <v>29.29940768909686</v>
       </c>
       <c r="P82" t="n">
-        <v>29.92199276370869</v>
+        <v>29.92199276370868</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.02280929454264056</v>
+        <v>0.02280929454263853</v>
       </c>
       <c r="R82" t="n">
-        <v>0.4406539527150803</v>
+        <v>0.4406539527150009</v>
       </c>
       <c r="S82" t="n">
-        <v>0.2652862072965147</v>
+        <v>0.2652862072964627</v>
       </c>
       <c r="T82" t="n">
-        <v>0.1423385365385122</v>
+        <v>0.1423385365385031</v>
       </c>
       <c r="U82" t="n">
-        <v>0.08592795825394868</v>
+        <v>0.08592795825394856</v>
       </c>
       <c r="V82" t="n">
-        <v>0.08500128363178142</v>
+        <v>0.08500128363178951</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002909799999997631</v>
+        <v>0.00204140000000308</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>30.56399712741437</v>
       </c>
       <c r="G83" t="n">
-        <v>67.71568196393754</v>
+        <v>67.71568196393748</v>
       </c>
       <c r="H83" t="n">
-        <v>6.880457416971405</v>
+        <v>6.880457416971408</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7251,28 +7251,28 @@
         <v>32.34144758506243</v>
       </c>
       <c r="O83" t="n">
-        <v>15.89136040206502</v>
+        <v>15.89136040206501</v>
       </c>
       <c r="P83" t="n">
         <v>32.3134549558776</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.02269695372741616</v>
+        <v>0.02269695372741639</v>
       </c>
       <c r="R83" t="n">
-        <v>0.3974375837689656</v>
+        <v>0.3974375837689563</v>
       </c>
       <c r="S83" t="n">
-        <v>0.1724634010186316</v>
+        <v>0.1724634010186294</v>
       </c>
       <c r="T83" t="n">
-        <v>0.3203512242615059</v>
+        <v>0.32035122426151</v>
       </c>
       <c r="U83" t="n">
         <v>0.091059136205625</v>
       </c>
       <c r="V83" t="n">
-        <v>0.1871092183803915</v>
+        <v>0.1871092183803813</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002204400000010764</v>
+        <v>0.001613999999996452</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7309,7 +7309,7 @@
         <v>30.00474474740728</v>
       </c>
       <c r="G84" t="n">
-        <v>48.25307602391197</v>
+        <v>48.25307602391194</v>
       </c>
       <c r="H84" t="n">
         <v>11.09364196355208</v>
@@ -7333,28 +7333,28 @@
         <v>37.32399253950987</v>
       </c>
       <c r="O84" t="n">
-        <v>16.99080291968389</v>
+        <v>16.9908029196839</v>
       </c>
       <c r="P84" t="n">
         <v>37.90687295692072</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.02351177747422492</v>
+        <v>0.02351177747422401</v>
       </c>
       <c r="R84" t="n">
-        <v>0.4394205762372685</v>
+        <v>0.4394205762372406</v>
       </c>
       <c r="S84" t="n">
-        <v>0.2152790740704865</v>
+        <v>0.2152790740704674</v>
       </c>
       <c r="T84" t="n">
-        <v>0.3588628633603975</v>
+        <v>0.3588628633603755</v>
       </c>
       <c r="U84" t="n">
-        <v>0.09700028130039894</v>
+        <v>0.09700028130039891</v>
       </c>
       <c r="V84" t="n">
-        <v>0.159912824684748</v>
+        <v>0.1599128246847487</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002534900000000562</v>
+        <v>0.002407099999999218</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,10 +7388,10 @@
         <v>359.999945288604</v>
       </c>
       <c r="F85" t="n">
-        <v>29.55635886990046</v>
+        <v>29.55635886990048</v>
       </c>
       <c r="G85" t="n">
-        <v>46.18141001817776</v>
+        <v>46.18141001817779</v>
       </c>
       <c r="H85" t="n">
         <v>10.98588306755818</v>
@@ -7418,25 +7418,25 @@
         <v>16.49817304958846</v>
       </c>
       <c r="P85" t="n">
-        <v>37.61635887557933</v>
+        <v>37.61635887557934</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02303952321974495</v>
+        <v>0.02303952321974539</v>
       </c>
       <c r="R85" t="n">
-        <v>0.4254331892760205</v>
+        <v>0.425433189276008</v>
       </c>
       <c r="S85" t="n">
-        <v>0.2059880897624305</v>
+        <v>0.2059880897624287</v>
       </c>
       <c r="T85" t="n">
-        <v>0.3640116050899095</v>
+        <v>0.3640116050899156</v>
       </c>
       <c r="U85" t="n">
-        <v>0.08910150586070187</v>
+        <v>0.08910150586070195</v>
       </c>
       <c r="V85" t="n">
-        <v>0.08747727404121308</v>
+        <v>0.08747727404121206</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002520400000008749</v>
+        <v>0.001790399999997305</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7470,13 +7470,13 @@
         <v>0.0837461968247824</v>
       </c>
       <c r="F86" t="n">
-        <v>30.48690332906007</v>
+        <v>30.48690332906008</v>
       </c>
       <c r="G86" t="n">
-        <v>8.184909359365335</v>
+        <v>8.184909359365347</v>
       </c>
       <c r="H86" t="n">
-        <v>7.198459375423605</v>
+        <v>7.198459375423588</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>36.50263365953843</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.02009911690785954</v>
+        <v>0.02009911690785973</v>
       </c>
       <c r="R86" t="n">
-        <v>0.5846725797816444</v>
+        <v>0.5846725797816477</v>
       </c>
       <c r="S86" t="n">
-        <v>0.07491582174237754</v>
+        <v>0.07491582174237807</v>
       </c>
       <c r="T86" t="n">
-        <v>0.9450642611796822</v>
+        <v>0.9450642611796922</v>
       </c>
       <c r="U86" t="n">
-        <v>0.1005743675332884</v>
+        <v>0.1005743675332883</v>
       </c>
       <c r="V86" t="n">
-        <v>0.1041102352158038</v>
+        <v>0.1041102352158092</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003448099999999954</v>
+        <v>0.001442699999998354</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>0.02056293535801074</v>
       </c>
       <c r="F87" t="n">
-        <v>30.02096951894185</v>
+        <v>30.02096951894186</v>
       </c>
       <c r="G87" t="n">
         <v>111.3855624874072</v>
       </c>
       <c r="H87" t="n">
-        <v>9.102939289501151</v>
+        <v>9.102939289501156</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7582,25 +7582,25 @@
         <v>25.86002368822829</v>
       </c>
       <c r="P87" t="n">
-        <v>26.02778880621864</v>
+        <v>26.02778880621866</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.02210222733937678</v>
+        <v>0.02210222733937964</v>
       </c>
       <c r="R87" t="n">
-        <v>0.3930967419017366</v>
+        <v>0.3930967419018359</v>
       </c>
       <c r="S87" t="n">
-        <v>0.2046591141824105</v>
+        <v>0.2046591141824719</v>
       </c>
       <c r="T87" t="n">
-        <v>0.146043223123571</v>
+        <v>0.1460432231235777</v>
       </c>
       <c r="U87" t="n">
-        <v>0.0918667906851434</v>
+        <v>0.09186679068514347</v>
       </c>
       <c r="V87" t="n">
-        <v>0.01811314622962261</v>
+        <v>0.01811314622962206</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002703299999993192</v>
+        <v>0.002072499999997035</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>30.01848731221375</v>
       </c>
       <c r="G88" t="n">
-        <v>38.51619247883527</v>
+        <v>38.51619247883529</v>
       </c>
       <c r="H88" t="n">
-        <v>5.176870248328234</v>
+        <v>5.17687024832823</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>32.65318310445836</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.02129110561801496</v>
+        <v>0.02129110561801465</v>
       </c>
       <c r="R88" t="n">
-        <v>0.3781271616085428</v>
+        <v>0.3781271616085386</v>
       </c>
       <c r="S88" t="n">
-        <v>0.1115532767867098</v>
+        <v>0.1115532767867056</v>
       </c>
       <c r="T88" t="n">
-        <v>0.5103458275916073</v>
+        <v>0.510345827591599</v>
       </c>
       <c r="U88" t="n">
-        <v>0.09119928238150497</v>
+        <v>0.0911992823815049</v>
       </c>
       <c r="V88" t="n">
-        <v>0.2195011220263807</v>
+        <v>0.2195011220263834</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003994099999999889</v>
+        <v>0.001730999999999483</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.003771648398118855</v>
       </c>
       <c r="F89" t="n">
-        <v>30.08752753073891</v>
+        <v>30.08752753073893</v>
       </c>
       <c r="G89" t="n">
         <v>118.3089925822185</v>
       </c>
       <c r="H89" t="n">
-        <v>14.50050190589089</v>
+        <v>14.5005019058909</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7743,28 +7743,28 @@
         <v>25.30051964941712</v>
       </c>
       <c r="O89" t="n">
-        <v>40.63265366488616</v>
+        <v>40.63265366488615</v>
       </c>
       <c r="P89" t="n">
-        <v>25.32525041789424</v>
+        <v>25.32525041789426</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.02253801253755142</v>
+        <v>0.02253801253755025</v>
       </c>
       <c r="R89" t="n">
-        <v>0.4767580061322455</v>
+        <v>0.4767580061321672</v>
       </c>
       <c r="S89" t="n">
-        <v>0.3048587628023318</v>
+        <v>0.3048587628022829</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1080236601937655</v>
+        <v>0.108023660193757</v>
       </c>
       <c r="U89" t="n">
-        <v>0.09083154122444327</v>
+        <v>0.09083154122444322</v>
       </c>
       <c r="V89" t="n">
-        <v>0.01630898544711397</v>
+        <v>0.01630898544711776</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002962099999990642</v>
+        <v>0.002147200000003124</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7801,10 +7801,10 @@
         <v>30.58490932279167</v>
       </c>
       <c r="G90" t="n">
-        <v>116.1941639570276</v>
+        <v>116.1941639570277</v>
       </c>
       <c r="H90" t="n">
-        <v>9.30387797297008</v>
+        <v>9.303877972970078</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>25.90368598226569</v>
       </c>
       <c r="P90" t="n">
-        <v>25.61372674128667</v>
+        <v>25.61372674128666</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02246970436305595</v>
+        <v>0.0224697043630544</v>
       </c>
       <c r="R90" t="n">
-        <v>0.4027558389542159</v>
+        <v>0.4027558389540716</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2047932911952486</v>
+        <v>0.2047932911951837</v>
       </c>
       <c r="T90" t="n">
-        <v>0.1433438060456389</v>
+        <v>0.1433438060456411</v>
       </c>
       <c r="U90" t="n">
         <v>0.08965839121521504</v>
       </c>
       <c r="V90" t="n">
-        <v>0.1131632098649075</v>
+        <v>0.1131632098649049</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004320800000002123</v>
+        <v>0.002011599999995894</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7883,7 +7883,7 @@
         <v>30.00628098273808</v>
       </c>
       <c r="G91" t="n">
-        <v>93.4742133042181</v>
+        <v>93.474213304218</v>
       </c>
       <c r="H91" t="n">
         <v>5.932120971756808</v>
@@ -7910,25 +7910,25 @@
         <v>17.13745545873395</v>
       </c>
       <c r="P91" t="n">
-        <v>28.21107182790977</v>
+        <v>28.21107182790978</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.0217877866940253</v>
+        <v>0.02178778669402712</v>
       </c>
       <c r="R91" t="n">
-        <v>0.3591939840199429</v>
+        <v>0.3591939840199875</v>
       </c>
       <c r="S91" t="n">
-        <v>0.1571526594785754</v>
+        <v>0.1571526594786034</v>
       </c>
       <c r="T91" t="n">
-        <v>0.2605265865089219</v>
+        <v>0.2605265865089465</v>
       </c>
       <c r="U91" t="n">
-        <v>0.09355188735997071</v>
+        <v>0.09355188735997076</v>
       </c>
       <c r="V91" t="n">
-        <v>0.1766979557345449</v>
+        <v>0.1766979557345422</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001981299999997077</v>
+        <v>0.001561899999998673</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -7968,7 +7968,7 @@
         <v>24.70815881687787</v>
       </c>
       <c r="H92" t="n">
-        <v>5.428140235736168</v>
+        <v>5.428140235736167</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>32.95742471185986</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.02021503750021656</v>
+        <v>0.02021503750021686</v>
       </c>
       <c r="R92" t="n">
-        <v>0.4001737986535006</v>
+        <v>0.4001737986535019</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0926912857246618</v>
+        <v>0.09269128572466373</v>
       </c>
       <c r="T92" t="n">
-        <v>0.6091375969654858</v>
+        <v>0.6091375969654965</v>
       </c>
       <c r="U92" t="n">
         <v>0.09643876424706589</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3624012512561715</v>
+        <v>0.3624012512561706</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002165199999993206</v>
+        <v>0.001637500000001069</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8041,16 +8041,16 @@
         <v>6.948245597906183</v>
       </c>
       <c r="E93" t="n">
-        <v>359.9507051037153</v>
+        <v>359.9507051037152</v>
       </c>
       <c r="F93" t="n">
-        <v>29.59939904046912</v>
+        <v>29.5993990404691</v>
       </c>
       <c r="G93" t="n">
-        <v>35.67053085569266</v>
+        <v>35.67053085569265</v>
       </c>
       <c r="H93" t="n">
-        <v>6.993114024326591</v>
+        <v>6.993114024326592</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>10.12899626204299</v>
       </c>
       <c r="P93" t="n">
-        <v>34.3354768962837</v>
+        <v>34.33547689628369</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.02166185535177079</v>
+        <v>0.02166185535177115</v>
       </c>
       <c r="R93" t="n">
-        <v>0.3813169263377199</v>
+        <v>0.381316926337726</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1277178803040603</v>
+        <v>0.127717880304064</v>
       </c>
       <c r="T93" t="n">
-        <v>0.4779097198975887</v>
+        <v>0.4779097198975973</v>
       </c>
       <c r="U93" t="n">
-        <v>0.08464303246132555</v>
+        <v>0.0846430324613255</v>
       </c>
       <c r="V93" t="n">
-        <v>0.04491799915321307</v>
+        <v>0.04491799915321373</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002203199999996741</v>
+        <v>0.001594200000006651</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8126,7 +8126,7 @@
         <v>0.07131320391552227</v>
       </c>
       <c r="F94" t="n">
-        <v>29.44681310110207</v>
+        <v>29.44681310110206</v>
       </c>
       <c r="G94" t="n">
         <v>160.8286505031493</v>
@@ -8156,25 +8156,25 @@
         <v>25.62880121988519</v>
       </c>
       <c r="P94" t="n">
-        <v>14.12235594428412</v>
+        <v>14.12235594428411</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01969244822013072</v>
+        <v>0.01969244822013187</v>
       </c>
       <c r="R94" t="n">
-        <v>0.2885410051773923</v>
+        <v>0.2885410051774223</v>
       </c>
       <c r="S94" t="n">
-        <v>0.1190498381967483</v>
+        <v>0.1190498381967622</v>
       </c>
       <c r="T94" t="n">
-        <v>0.1071022905792681</v>
+        <v>0.1071022905792659</v>
       </c>
       <c r="U94" t="n">
         <v>0.08005972653866408</v>
       </c>
       <c r="V94" t="n">
-        <v>0.1200036088232049</v>
+        <v>0.1200036088232056</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002665300000003867</v>
+        <v>0.00210880000000202</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8208,13 +8208,13 @@
         <v>359.9865836811057</v>
       </c>
       <c r="F95" t="n">
-        <v>29.58585997333838</v>
+        <v>29.58585997333839</v>
       </c>
       <c r="G95" t="n">
         <v>109.0892434526414</v>
       </c>
       <c r="H95" t="n">
-        <v>10.71221233556075</v>
+        <v>10.71221233556076</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8235,28 +8235,28 @@
         <v>26.76193268396159</v>
       </c>
       <c r="O95" t="n">
-        <v>30.31542210571838</v>
+        <v>30.31542210571839</v>
       </c>
       <c r="P95" t="n">
         <v>26.37155841520583</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.02214860940569431</v>
+        <v>0.02214860940569104</v>
       </c>
       <c r="R95" t="n">
-        <v>0.4113057692157208</v>
+        <v>0.4113057692156333</v>
       </c>
       <c r="S95" t="n">
-        <v>0.2367507466640243</v>
+        <v>0.2367507466639626</v>
       </c>
       <c r="T95" t="n">
-        <v>0.1177708854572236</v>
+        <v>0.1177708854572207</v>
       </c>
       <c r="U95" t="n">
-        <v>0.08098041795345842</v>
+        <v>0.08098041795345855</v>
       </c>
       <c r="V95" t="n">
-        <v>0.07122072521866614</v>
+        <v>0.07122072521866488</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002846599999998034</v>
+        <v>0.002006699999995476</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.01046494185355058</v>
       </c>
       <c r="F96" t="n">
-        <v>29.68047370552267</v>
+        <v>29.68047370552265</v>
       </c>
       <c r="G96" t="n">
         <v>129.3438236881245</v>
       </c>
       <c r="H96" t="n">
-        <v>10.12672916902914</v>
+        <v>10.12672916902913</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,25 +8320,25 @@
         <v>28.64177617254861</v>
       </c>
       <c r="P96" t="n">
-        <v>22.05934913631194</v>
+        <v>22.05934913631193</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.02143377978555778</v>
+        <v>0.02143377978555486</v>
       </c>
       <c r="R96" t="n">
-        <v>0.3707904027999008</v>
+        <v>0.3707904027997479</v>
       </c>
       <c r="S96" t="n">
-        <v>0.1885886618754104</v>
+        <v>0.1885886618753357</v>
       </c>
       <c r="T96" t="n">
-        <v>0.1131207578914027</v>
+        <v>0.1131207578914038</v>
       </c>
       <c r="U96" t="n">
-        <v>0.08963975519783285</v>
+        <v>0.08963975519783286</v>
       </c>
       <c r="V96" t="n">
-        <v>0.07427100595876873</v>
+        <v>0.07427100595877152</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002671100000000592</v>
+        <v>0.001934699999999623</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8372,13 +8372,13 @@
         <v>359.9841810911628</v>
       </c>
       <c r="F97" t="n">
-        <v>30.03594725776908</v>
+        <v>30.03594725776909</v>
       </c>
       <c r="G97" t="n">
-        <v>40.2881586385641</v>
+        <v>40.28815863856406</v>
       </c>
       <c r="H97" t="n">
-        <v>5.450012765316819</v>
+        <v>5.450012765316828</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>9.44470502904643</v>
       </c>
       <c r="P97" t="n">
-        <v>32.85367066484611</v>
+        <v>32.85367066484613</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.02149622037623196</v>
+        <v>0.02149622037623287</v>
       </c>
       <c r="R97" t="n">
-        <v>0.3771049244045444</v>
+        <v>0.3771049244045454</v>
       </c>
       <c r="S97" t="n">
-        <v>0.1173147056252966</v>
+        <v>0.1173147056253023</v>
       </c>
       <c r="T97" t="n">
-        <v>0.4899132811645146</v>
+        <v>0.4899132811645444</v>
       </c>
       <c r="U97" t="n">
-        <v>0.08495050702709769</v>
+        <v>0.08495050702709765</v>
       </c>
       <c r="V97" t="n">
-        <v>0.11204145800691</v>
+        <v>0.1120414580069156</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.003338299999995797</v>
+        <v>0.002139599999999575</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8484,25 +8484,25 @@
         <v>15.99242269440765</v>
       </c>
       <c r="P98" t="n">
-        <v>40.94476470838763</v>
+        <v>40.94476470838762</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.02347743812593079</v>
+        <v>0.02347743812592987</v>
       </c>
       <c r="R98" t="n">
-        <v>0.4538272030875561</v>
+        <v>0.4538272030875215</v>
       </c>
       <c r="S98" t="n">
-        <v>0.2223121806766138</v>
+        <v>0.2223121806765916</v>
       </c>
       <c r="T98" t="n">
-        <v>0.4156040868968179</v>
+        <v>0.4156040868967884</v>
       </c>
       <c r="U98" t="n">
-        <v>0.08705896606990732</v>
+        <v>0.0870589660699074</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1929228854051032</v>
+        <v>0.1929228854051038</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002454100000008452</v>
+        <v>0.001826199999996447</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,13 +8536,13 @@
         <v>0.06980198039470625</v>
       </c>
       <c r="F99" t="n">
-        <v>29.56765502682743</v>
+        <v>29.56765502682741</v>
       </c>
       <c r="G99" t="n">
         <v>151.3180547271555</v>
       </c>
       <c r="H99" t="n">
-        <v>14.42483195275113</v>
+        <v>14.42483195275112</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8566,25 +8566,25 @@
         <v>38.96117399554072</v>
       </c>
       <c r="P99" t="n">
-        <v>15.13097842731629</v>
+        <v>15.13097842731628</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.02061693310840092</v>
+        <v>0.02061693310839799</v>
       </c>
       <c r="R99" t="n">
-        <v>0.3822917063304439</v>
+        <v>0.3822917063302629</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1798047990762913</v>
+        <v>0.1798047990762149</v>
       </c>
       <c r="T99" t="n">
-        <v>0.1359319990619426</v>
+        <v>0.1359319990618859</v>
       </c>
       <c r="U99" t="n">
-        <v>0.08827750724067991</v>
+        <v>0.08827750724067998</v>
       </c>
       <c r="V99" t="n">
-        <v>0.1146785610693874</v>
+        <v>0.1146785610693892</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.004579300000003172</v>
+        <v>0.002286800000000255</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8624,7 +8624,7 @@
         <v>133.9111162128696</v>
       </c>
       <c r="H100" t="n">
-        <v>9.529921979683664</v>
+        <v>9.529921979683666</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8645,28 +8645,28 @@
         <v>21.92280540344407</v>
       </c>
       <c r="O100" t="n">
-        <v>26.90273653566529</v>
+        <v>26.90273653566528</v>
       </c>
       <c r="P100" t="n">
-        <v>20.89854696524063</v>
+        <v>20.89854696524065</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.02061740377552176</v>
+        <v>0.02061740377552112</v>
       </c>
       <c r="R100" t="n">
-        <v>0.3409857347545633</v>
+        <v>0.3409857347544981</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1671508787863873</v>
+        <v>0.1671508787863589</v>
       </c>
       <c r="T100" t="n">
-        <v>0.1174481931208839</v>
+        <v>0.1174481931208884</v>
       </c>
       <c r="U100" t="n">
-        <v>0.09784534046267074</v>
+        <v>0.09784534046267064</v>
       </c>
       <c r="V100" t="n">
-        <v>0.217149081399628</v>
+        <v>0.2171490813996318</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.00246620000000064</v>
+        <v>0.002400000000001512</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8700,13 +8700,13 @@
         <v>359.9666737073375</v>
       </c>
       <c r="F101" t="n">
-        <v>30.28947814159936</v>
+        <v>30.28947814159935</v>
       </c>
       <c r="G101" t="n">
         <v>120.4996815046359</v>
       </c>
       <c r="H101" t="n">
-        <v>8.973914429313464</v>
+        <v>8.973914429313458</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>25.16063621118671</v>
       </c>
       <c r="P101" t="n">
-        <v>24.53558731280715</v>
+        <v>24.53558731280712</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.02217851234931691</v>
+        <v>0.02217851234931643</v>
       </c>
       <c r="R101" t="n">
-        <v>0.3830848353447781</v>
+        <v>0.3830848353447423</v>
       </c>
       <c r="S101" t="n">
-        <v>0.1899911000812499</v>
+        <v>0.1899911000812323</v>
       </c>
       <c r="T101" t="n">
-        <v>0.1434645931829819</v>
+        <v>0.1434645931829834</v>
       </c>
       <c r="U101" t="n">
-        <v>0.08747715754644211</v>
+        <v>0.08747715754644207</v>
       </c>
       <c r="V101" t="n">
-        <v>0.07480085522303696</v>
+        <v>0.07480085522303398</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003444500000000517</v>
+        <v>0.001846000000000458</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
